--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,13 +494,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-24 21:59:30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>219257441</t>
-        </is>
+          <t>2025-04-24 18:59:30</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>219257441</v>
       </c>
       <c r="C2" t="n">
         <v>1510472103</v>
@@ -528,13 +526,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-24 21:59:31</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>219257446</t>
-        </is>
+          <t>2025-04-24 18:59:31</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>219257446</v>
       </c>
       <c r="C3" t="n">
         <v>1510472103</v>
@@ -562,13 +558,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-24 22:00:50</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>227380142</t>
-        </is>
+          <t>2025-04-24 19:00:50</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>227380142</v>
       </c>
       <c r="C4" t="n">
         <v>1510472103</v>
@@ -594,7 +588,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-04-24 21:59:37</t>
+          <t>2025-04-24 18:59:37</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -609,13 +603,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-24 22:03:35</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>227380138</t>
-        </is>
+          <t>2025-04-24 19:03:35</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>227380138</v>
       </c>
       <c r="C5" t="n">
         <v>1510472103</v>
@@ -641,7 +633,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-04-24 21:59:36</t>
+          <t>2025-04-24 18:59:36</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -651,13 +643,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-24 22:03:36</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>227380155</t>
-        </is>
+          <t>2025-04-24 19:03:36</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>227380155</v>
       </c>
       <c r="C6" t="n">
         <v>1510472103</v>
@@ -683,7 +673,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-04-24 21:59:38</t>
+          <t>2025-04-24 18:59:38</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -693,13 +683,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-24 22:03:37</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>227380161</t>
-        </is>
+          <t>2025-04-24 19:03:37</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>227380161</v>
       </c>
       <c r="C7" t="n">
         <v>1510472103</v>
@@ -725,7 +713,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-04-24 21:59:38</t>
+          <t>2025-04-24 18:59:38</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -735,13 +723,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-24 22:09:59</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>227383470</t>
-        </is>
+          <t>2025-04-24 19:09:59</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>227383470</v>
       </c>
       <c r="C8" t="n">
         <v>1510472103</v>
@@ -767,7 +753,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-04-24 22:03:30</t>
+          <t>2025-04-24 19:03:30</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -777,13 +763,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>227383480</t>
-        </is>
+          <t>2025-04-24 19:10:00</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>227383480</v>
       </c>
       <c r="C9" t="n">
         <v>1510472103</v>
@@ -809,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-04-24 22:03:31</t>
+          <t>2025-04-24 19:03:31</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -819,13 +803,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:03</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>227384760</t>
-        </is>
+          <t>2025-04-24 19:10:03</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>227384760</v>
       </c>
       <c r="C10" t="n">
         <v>1510472103</v>
@@ -851,7 +833,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-04-24 22:06:14</t>
+          <t>2025-04-24 19:06:14</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -861,13 +843,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:03</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>227385628</t>
-        </is>
+          <t>2025-04-24 19:10:03</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>227385628</v>
       </c>
       <c r="C11" t="n">
         <v>1510472103</v>
@@ -893,7 +873,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-04-24 22:08:55</t>
+          <t>2025-04-24 19:08:55</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -903,13 +883,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:04</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>227385664</t>
-        </is>
+          <t>2025-04-24 19:10:04</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>227385664</v>
       </c>
       <c r="C12" t="n">
         <v>1510472103</v>
@@ -935,7 +913,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-04-24 22:08:55</t>
+          <t>2025-04-24 19:08:55</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -945,13 +923,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:05</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>227383462</t>
-        </is>
+          <t>2025-04-24 19:10:05</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>227383462</v>
       </c>
       <c r="C13" t="n">
         <v>1510472103</v>
@@ -977,7 +953,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-04-24 22:03:30</t>
+          <t>2025-04-24 19:03:30</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -987,13 +963,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:11</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>227383456</t>
-        </is>
+          <t>2025-04-24 19:10:11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>227383456</v>
       </c>
       <c r="C14" t="n">
         <v>1510472103</v>
@@ -1019,7 +993,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-04-24 22:03:29</t>
+          <t>2025-04-24 19:03:29</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1029,13 +1003,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:12</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>227386213</t>
-        </is>
+          <t>2025-04-24 19:10:12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>227386213</v>
       </c>
       <c r="C15" t="n">
         <v>1510472103</v>
@@ -1061,7 +1033,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-04-24 22:08:15</t>
+          <t>2025-04-24 19:08:15</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1071,13 +1043,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:12</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>227386232</t>
-        </is>
+          <t>2025-04-24 19:10:12</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>227386232</v>
       </c>
       <c r="C16" t="n">
         <v>1510472103</v>
@@ -1103,7 +1073,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-04-24 22:08:15</t>
+          <t>2025-04-24 19:08:15</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1113,13 +1083,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-24 22:10:13</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>227386249</t>
-        </is>
+          <t>2025-04-24 19:10:13</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>227386249</v>
       </c>
       <c r="C17" t="n">
         <v>1510472103</v>
@@ -1145,7 +1113,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-04-24 22:08:19</t>
+          <t>2025-04-24 19:08:19</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1155,13 +1123,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-24 22:38:05</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>227403737</t>
-        </is>
+          <t>2025-04-24 19:38:05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>227403737</v>
       </c>
       <c r="C18" t="n">
         <v>1510472103</v>
@@ -1187,7 +1153,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-04-24 22:34:51</t>
+          <t>2025-04-24 19:34:51</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1202,13 +1168,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-24 22:38:05</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>227403740</t>
-        </is>
+          <t>2025-04-24 19:38:05</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>227403740</v>
       </c>
       <c r="C19" t="n">
         <v>1510472103</v>
@@ -1234,7 +1198,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-04-24 22:34:52</t>
+          <t>2025-04-24 19:34:52</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1249,13 +1213,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-24 22:38:06</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>227403741</t>
-        </is>
+          <t>2025-04-24 19:38:06</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>227403741</v>
       </c>
       <c r="C20" t="n">
         <v>1510472103</v>
@@ -1281,7 +1243,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-04-24 22:34:52</t>
+          <t>2025-04-24 19:34:52</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1296,13 +1258,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-24 22:38:06</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>227403744</t>
-        </is>
+          <t>2025-04-24 19:38:06</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>227403744</v>
       </c>
       <c r="C21" t="n">
         <v>1510472103</v>
@@ -1328,7 +1288,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-04-24 22:34:53</t>
+          <t>2025-04-24 19:34:53</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1343,13 +1303,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-24 22:46:00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>227412665</t>
-        </is>
+          <t>2025-04-24 19:46:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>227412665</v>
       </c>
       <c r="C22" t="n">
         <v>1510472103</v>
@@ -1375,7 +1333,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-04-24 22:45:54</t>
+          <t>2025-04-24 19:45:54</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1390,13 +1348,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-24 22:46:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>227412671</t>
-        </is>
+          <t>2025-04-24 19:46:00</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>227412671</v>
       </c>
       <c r="C23" t="n">
         <v>1510472103</v>
@@ -1422,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-04-24 22:45:55</t>
+          <t>2025-04-24 19:45:55</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1437,13 +1393,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-24 22:46:01</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>227412672</t>
-        </is>
+          <t>2025-04-24 19:46:01</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>227412672</v>
       </c>
       <c r="C24" t="n">
         <v>1510472103</v>
@@ -1469,7 +1423,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-04-24 22:45:55</t>
+          <t>2025-04-24 19:45:55</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1484,13 +1438,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-24 22:46:01</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>227412675</t>
-        </is>
+          <t>2025-04-24 19:46:01</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>227412675</v>
       </c>
       <c r="C25" t="n">
         <v>1510472103</v>
@@ -1516,7 +1468,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-04-24 22:45:55</t>
+          <t>2025-04-24 19:45:55</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1531,13 +1483,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:38</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>227414258</t>
-        </is>
+          <t>2025-04-24 20:02:38</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>227414258</v>
       </c>
       <c r="C26" t="n">
         <v>1510472103</v>
@@ -1563,7 +1513,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-04-24 22:48:45</t>
+          <t>2025-04-24 19:48:45</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1578,13 +1528,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:39</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>227414260</t>
-        </is>
+          <t>2025-04-24 20:02:39</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>227414260</v>
       </c>
       <c r="C27" t="n">
         <v>1510472103</v>
@@ -1610,7 +1558,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-04-24 22:48:45</t>
+          <t>2025-04-24 19:48:45</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1625,13 +1573,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:39</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>227414263</t>
-        </is>
+          <t>2025-04-24 20:02:39</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>227414263</v>
       </c>
       <c r="C28" t="n">
         <v>1510472103</v>
@@ -1657,7 +1603,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-04-24 22:48:46</t>
+          <t>2025-04-24 19:48:46</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1672,13 +1618,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:40</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>227414265</t>
-        </is>
+          <t>2025-04-24 20:02:40</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>227414265</v>
       </c>
       <c r="C29" t="n">
         <v>1510472103</v>
@@ -1704,7 +1648,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-04-24 22:48:46</t>
+          <t>2025-04-24 19:48:46</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1719,13 +1663,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:46</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>227424134</t>
-        </is>
+          <t>2025-04-24 20:02:46</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>227424134</v>
       </c>
       <c r="C30" t="n">
         <v>1510472103</v>
@@ -1751,7 +1693,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:44</t>
+          <t>2025-04-24 20:02:44</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1766,13 +1708,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:47</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>227424139</t>
-        </is>
+          <t>2025-04-24 20:02:47</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>227424139</v>
       </c>
       <c r="C31" t="n">
         <v>1510472103</v>
@@ -1798,7 +1738,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:44</t>
+          <t>2025-04-24 20:02:44</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1813,13 +1753,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:47</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>227424147</t>
-        </is>
+          <t>2025-04-24 20:02:47</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>227424147</v>
       </c>
       <c r="C32" t="n">
         <v>1510472103</v>
@@ -1845,7 +1783,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:44</t>
+          <t>2025-04-24 20:02:44</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1860,13 +1798,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:48</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>227424152</t>
-        </is>
+          <t>2025-04-24 20:02:48</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>227424152</v>
       </c>
       <c r="C33" t="n">
         <v>1510472103</v>
@@ -1892,7 +1828,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:45</t>
+          <t>2025-04-24 20:02:45</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1907,13 +1843,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:55</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>227424233</t>
-        </is>
+          <t>2025-04-24 20:02:55</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>227424233</v>
       </c>
       <c r="C34" t="n">
         <v>1510472103</v>
@@ -1939,7 +1873,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:52</t>
+          <t>2025-04-24 20:02:52</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1954,13 +1888,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:56</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>227424238</t>
-        </is>
+          <t>2025-04-24 20:02:56</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>227424238</v>
       </c>
       <c r="C35" t="n">
         <v>1510472103</v>
@@ -1986,7 +1918,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:53</t>
+          <t>2025-04-24 20:02:53</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2001,13 +1933,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:56</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>227424242</t>
-        </is>
+          <t>2025-04-24 20:02:56</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>227424242</v>
       </c>
       <c r="C36" t="n">
         <v>1510472103</v>
@@ -2033,7 +1963,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:53</t>
+          <t>2025-04-24 20:02:53</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2048,13 +1978,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:57</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>227424245</t>
-        </is>
+          <t>2025-04-24 20:02:57</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>227424245</v>
       </c>
       <c r="C37" t="n">
         <v>1510472103</v>
@@ -2080,7 +2008,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-04-24 23:02:53</t>
+          <t>2025-04-24 20:02:53</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2095,13 +2023,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:06</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>227424341</t>
-        </is>
+          <t>2025-04-24 20:03:06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>227424341</v>
       </c>
       <c r="C38" t="n">
         <v>1510472103</v>
@@ -2127,7 +2053,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:02</t>
+          <t>2025-04-24 20:03:02</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2142,13 +2068,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:07</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>227424346</t>
-        </is>
+          <t>2025-04-24 20:03:07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>227424346</v>
       </c>
       <c r="C39" t="n">
         <v>1510472103</v>
@@ -2174,7 +2098,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:02</t>
+          <t>2025-04-24 20:03:02</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2189,13 +2113,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:07</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>227424349</t>
-        </is>
+          <t>2025-04-24 20:03:07</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>227424349</v>
       </c>
       <c r="C40" t="n">
         <v>1510472103</v>
@@ -2221,7 +2143,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:03</t>
+          <t>2025-04-24 20:03:03</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2236,13 +2158,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:08</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>227424353</t>
-        </is>
+          <t>2025-04-24 20:03:08</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>227424353</v>
       </c>
       <c r="C41" t="n">
         <v>1510472103</v>
@@ -2268,7 +2188,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:03</t>
+          <t>2025-04-24 20:03:03</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2283,13 +2203,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:19</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>227424496</t>
-        </is>
+          <t>2025-04-24 20:03:19</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>227424496</v>
       </c>
       <c r="C42" t="n">
         <v>1510472103</v>
@@ -2315,7 +2233,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:15</t>
+          <t>2025-04-24 20:03:15</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2330,13 +2248,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:20</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>227424499</t>
-        </is>
+          <t>2025-04-24 20:03:20</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>227424499</v>
       </c>
       <c r="C43" t="n">
         <v>1510472103</v>
@@ -2362,7 +2278,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:16</t>
+          <t>2025-04-24 20:03:16</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2377,13 +2293,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:20</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>227424503</t>
-        </is>
+          <t>2025-04-24 20:03:20</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>227424503</v>
       </c>
       <c r="C44" t="n">
         <v>1510472103</v>
@@ -2409,7 +2323,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:16</t>
+          <t>2025-04-24 20:03:16</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2424,13 +2338,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:20</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>227424511</t>
-        </is>
+          <t>2025-04-24 20:03:20</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>227424511</v>
       </c>
       <c r="C45" t="n">
         <v>1510472103</v>
@@ -2456,7 +2368,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:17</t>
+          <t>2025-04-24 20:03:17</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2471,13 +2383,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:25</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>227424553</t>
-        </is>
+          <t>2025-04-24 20:03:25</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>227424553</v>
       </c>
       <c r="C46" t="n">
         <v>1510472103</v>
@@ -2503,7 +2413,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:21</t>
+          <t>2025-04-24 20:03:21</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2518,13 +2428,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:25</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>227424554</t>
-        </is>
+          <t>2025-04-24 20:03:25</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>227424554</v>
       </c>
       <c r="C47" t="n">
         <v>1510472103</v>
@@ -2550,7 +2458,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:22</t>
+          <t>2025-04-24 20:03:22</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2565,13 +2473,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:25</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>227424556</t>
-        </is>
+          <t>2025-04-24 20:03:25</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>227424556</v>
       </c>
       <c r="C48" t="n">
         <v>1510472103</v>
@@ -2597,7 +2503,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:22</t>
+          <t>2025-04-24 20:03:22</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2612,13 +2518,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:26</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>227424558</t>
-        </is>
+          <t>2025-04-24 20:03:26</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>227424558</v>
       </c>
       <c r="C49" t="n">
         <v>1510472103</v>
@@ -2644,7 +2548,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-04-24 23:03:23</t>
+          <t>2025-04-24 20:03:23</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2659,13 +2563,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:40</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>227427061</t>
-        </is>
+          <t>2025-04-24 20:07:40</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>227427061</v>
       </c>
       <c r="C50" t="n">
         <v>1510472103</v>
@@ -2691,7 +2593,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:37</t>
+          <t>2025-04-24 20:07:37</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2706,13 +2608,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:41</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>227427063</t>
-        </is>
+          <t>2025-04-24 20:07:41</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>227427063</v>
       </c>
       <c r="C51" t="n">
         <v>1510472103</v>
@@ -2738,7 +2638,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:37</t>
+          <t>2025-04-24 20:07:37</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2753,13 +2653,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:41</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>227427065</t>
-        </is>
+          <t>2025-04-24 20:07:41</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>227427065</v>
       </c>
       <c r="C52" t="n">
         <v>1510472103</v>
@@ -2785,7 +2683,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:38</t>
+          <t>2025-04-24 20:07:38</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2800,13 +2698,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:41</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>227427068</t>
-        </is>
+          <t>2025-04-24 20:07:41</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>227427068</v>
       </c>
       <c r="C53" t="n">
         <v>1510472103</v>
@@ -2832,7 +2728,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2025-04-24 23:07:38</t>
+          <t>2025-04-24 20:07:38</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2847,13 +2743,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-24 23:14:36</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>227430027</t>
-        </is>
+          <t>2025-04-24 20:14:36</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>227430027</v>
       </c>
       <c r="C54" t="n">
         <v>1510472103</v>
@@ -2879,11 +2773,1962 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2025-04-24 23:13:34</t>
+          <t>2025-04-24 20:13:34</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:47</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>227900060</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>19331.05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>19325.85</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:39</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:47</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>227900064</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>19331.05</v>
+      </c>
+      <c r="H56" t="n">
+        <v>19326.35</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:40</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:48</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>227900067</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>19330.35</v>
+      </c>
+      <c r="H57" t="n">
+        <v>19326.55</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:40</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:48</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>227900070</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>19330.35</v>
+      </c>
+      <c r="H58" t="n">
+        <v>19326.55</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:37:41</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:16</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>227906937</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>19343.35</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19341.25</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:13</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:16</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>227906940</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>19344.05</v>
+      </c>
+      <c r="H60" t="n">
+        <v>19343.45</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:13</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:17</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>227906942</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>19344.05</v>
+      </c>
+      <c r="H61" t="n">
+        <v>19342.85</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:14</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:17</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>227906944</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>19344.05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>19342.95</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:59:14</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:17</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>227909504</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>19346.05</v>
+      </c>
+      <c r="H63" t="n">
+        <v>19344.55</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:13</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:17</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>227909506</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>19346.45</v>
+      </c>
+      <c r="H64" t="n">
+        <v>19344.65</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:14</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:18</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>227909507</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>19346.45</v>
+      </c>
+      <c r="H65" t="n">
+        <v>19344.65</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:14</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:18</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>227909508</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>19346.05</v>
+      </c>
+      <c r="H66" t="n">
+        <v>19344.35</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:15</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:13</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>227909602</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>19345.55</v>
+      </c>
+      <c r="H67" t="n">
+        <v>19342.45</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:07:53</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:13</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>227909635</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>19344.35</v>
+      </c>
+      <c r="H68" t="n">
+        <v>19342.45</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:05</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:25</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>227909657</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>19343.95</v>
+      </c>
+      <c r="H69" t="n">
+        <v>19341.75</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:15</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:26</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>227909665</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>19343.95</v>
+      </c>
+      <c r="H70" t="n">
+        <v>19341.85</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:16</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:28</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>227909655</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>19344.05</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19341.65</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:15</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:28</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>227909668</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>19343.85</v>
+      </c>
+      <c r="H72" t="n">
+        <v>19341.45</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:08:16</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:30</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>227916822</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>19296.15</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19293.85</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:27</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:30</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>227916835</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>19296.15</v>
+      </c>
+      <c r="H74" t="n">
+        <v>19293.45</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:27</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:31</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>227916837</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>19295.95</v>
+      </c>
+      <c r="H75" t="n">
+        <v>19293.45</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:28</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:31</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>227916841</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>19295.95</v>
+      </c>
+      <c r="H76" t="n">
+        <v>19293.35</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:31:28</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:31</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>227920413</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>19335.35</v>
+      </c>
+      <c r="H77" t="n">
+        <v>19331.25</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:27</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:32</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>227920414</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>19335.35</v>
+      </c>
+      <c r="H78" t="n">
+        <v>19331.25</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:27</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:32</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>227920415</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>19335.45</v>
+      </c>
+      <c r="H79" t="n">
+        <v>19331.25</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:28</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:32</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>227920418</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>19335.45</v>
+      </c>
+      <c r="H80" t="n">
+        <v>19331.25</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:46:28</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:14:19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>227929456</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>19299.85</v>
+      </c>
+      <c r="H81" t="n">
+        <v>19295.85</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:14:11</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:35:23</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>227935489</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>19261.45</v>
+      </c>
+      <c r="H82" t="n">
+        <v>19259.25</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:35:21</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:47:12</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>227937643</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>19259.05</v>
+      </c>
+      <c r="H83" t="n">
+        <v>19257.25</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:47:08</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:47:13</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>227937645</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>19259.05</v>
+      </c>
+      <c r="H84" t="n">
+        <v>19257.45</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:47:09</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:47:14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>227937651</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>19258.85</v>
+      </c>
+      <c r="H85" t="n">
+        <v>19257.45</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:47:10</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:35</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>227938569</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1.13483</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.13514</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:52:46</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:35</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>227940430</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>19268.55</v>
+      </c>
+      <c r="H87" t="n">
+        <v>19267.75</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:32</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:36</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>227940433</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>19268.55</v>
+      </c>
+      <c r="H88" t="n">
+        <v>19267.55</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:32</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:36</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>227940434</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>19268.55</v>
+      </c>
+      <c r="H89" t="n">
+        <v>19267.75</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:33</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:37</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>227940436</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>19268.45</v>
+      </c>
+      <c r="H90" t="n">
+        <v>19267.55</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:02:33</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:12</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>227940825</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>19271.45</v>
+      </c>
+      <c r="H91" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:29</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:12</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>227940826</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>19271.45</v>
+      </c>
+      <c r="H92" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:30</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:13</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>227940827</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>19271.45</v>
+      </c>
+      <c r="H93" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:30</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:13</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>227940828</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>19271.35</v>
+      </c>
+      <c r="H94" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:31</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:14</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>227940880</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>19270.25</v>
+      </c>
+      <c r="H95" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:54</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>-88</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:14</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>227940881</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>19269.95</v>
+      </c>
+      <c r="H96" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:55</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:14</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>227940882</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>19269.85</v>
+      </c>
+      <c r="H97" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:55</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:06:15</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>227940883</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1510472103</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>19269.85</v>
+      </c>
+      <c r="H98" t="n">
+        <v>19265.85</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:05:56</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +4810,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-24 19:09:36</t>
+          <t>2025-04-24 16:09:36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2997,7 +4842,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-04-24 19:09:24</t>
+          <t>2025-04-24 16:09:24</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -3008,7 +4853,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-24 19:11:18</t>
+          <t>2025-04-24 16:11:18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3040,7 +4885,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-04-24 19:10:37</t>
+          <t>2025-04-24 16:10:37</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -3051,7 +4896,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-25 00:36:07</t>
+          <t>2025-04-24 21:36:07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3083,7 +4928,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-04-25 00:34:34</t>
+          <t>2025-04-24 21:34:34</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -3098,7 +4943,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-25 00:36:07</t>
+          <t>2025-04-24 21:36:07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3130,7 +4975,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-04-25 00:34:35</t>
+          <t>2025-04-24 21:34:35</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -3145,7 +4990,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-25 00:36:07</t>
+          <t>2025-04-24 21:36:07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3177,7 +5022,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-04-25 00:34:36</t>
+          <t>2025-04-24 21:34:36</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -3192,7 +5037,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-25 00:36:07</t>
+          <t>2025-04-24 21:36:07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3224,7 +5069,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-04-25 00:34:35</t>
+          <t>2025-04-24 21:34:35</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -3239,7 +5084,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-25 00:48:19</t>
+          <t>2025-04-24 21:48:19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3271,7 +5116,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-04-25 00:37:02</t>
+          <t>2025-04-24 21:37:02</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -3286,7 +5131,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-25 00:55:09</t>
+          <t>2025-04-24 21:55:09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3318,7 +5163,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-04-25 00:37:03</t>
+          <t>2025-04-24 21:37:03</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -3333,7 +5178,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-25 01:03:27</t>
+          <t>2025-04-24 22:03:27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3365,7 +5210,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-04-25 00:37:03</t>
+          <t>2025-04-24 21:37:03</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -3380,7 +5225,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-25 01:25:19</t>
+          <t>2025-04-24 22:25:19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3412,7 +5257,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-04-25 01:13:54</t>
+          <t>2025-04-24 22:13:54</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -3427,7 +5272,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-25 01:39:07</t>
+          <t>2025-04-24 22:39:07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3459,7 +5304,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-04-25 00:37:04</t>
+          <t>2025-04-24 21:37:04</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -3474,7 +5319,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-25 01:44:07</t>
+          <t>2025-04-24 22:44:07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3506,7 +5351,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-04-25 01:13:54</t>
+          <t>2025-04-24 22:13:54</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -3517,7 +5362,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-25 01:44:28</t>
+          <t>2025-04-24 22:44:28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3549,7 +5394,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-04-25 01:13:55</t>
+          <t>2025-04-24 22:13:55</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -3560,7 +5405,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-25 01:48:11</t>
+          <t>2025-04-24 22:48:11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3592,7 +5437,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-04-25 01:13:55</t>
+          <t>2025-04-24 22:13:55</t>
         </is>
       </c>
       <c r="J15" t="n">

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -4742,7 +4742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4806,6 +4806,11 @@
           <t>comment</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>trading_day</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4813,10 +4818,8 @@
           <t>2025-04-24 16:09:36</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>365500099</t>
-        </is>
+      <c r="B2" t="n">
+        <v>365500099</v>
       </c>
       <c r="C2" t="n">
         <v>25261744</v>
@@ -4849,6 +4852,7 @@
         <v>0.01</v>
       </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4856,10 +4860,8 @@
           <t>2025-04-24 16:11:18</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>365500782</t>
-        </is>
+      <c r="B3" t="n">
+        <v>365500782</v>
       </c>
       <c r="C3" t="n">
         <v>25261744</v>
@@ -4892,6 +4894,7 @@
         <v>-0.06</v>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4899,10 +4902,8 @@
           <t>2025-04-24 21:36:07</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>365700783</t>
-        </is>
+      <c r="B4" t="n">
+        <v>365700783</v>
       </c>
       <c r="C4" t="n">
         <v>25261744</v>
@@ -4939,6 +4940,7 @@
           <t>[sl 18739.90]</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4946,10 +4948,8 @@
           <t>2025-04-24 21:36:07</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>365700791</t>
-        </is>
+      <c r="B5" t="n">
+        <v>365700791</v>
       </c>
       <c r="C5" t="n">
         <v>25261744</v>
@@ -4986,6 +4986,7 @@
           <t>[sl 18738.25]</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4993,10 +4994,8 @@
           <t>2025-04-24 21:36:07</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>365700814</t>
-        </is>
+      <c r="B6" t="n">
+        <v>365700814</v>
       </c>
       <c r="C6" t="n">
         <v>25261744</v>
@@ -5033,6 +5032,7 @@
           <t>[sl 18738.25]</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5040,10 +5040,8 @@
           <t>2025-04-24 21:36:07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>365700804</t>
-        </is>
+      <c r="B7" t="n">
+        <v>365700804</v>
       </c>
       <c r="C7" t="n">
         <v>25261744</v>
@@ -5080,6 +5078,7 @@
           <t>[sl 18735.97]</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5087,10 +5086,8 @@
           <t>2025-04-24 21:48:19</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>365703606</t>
-        </is>
+      <c r="B8" t="n">
+        <v>365703606</v>
       </c>
       <c r="C8" t="n">
         <v>25261744</v>
@@ -5127,6 +5124,7 @@
           <t>[sl 18856.23]</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5134,10 +5132,8 @@
           <t>2025-04-24 21:55:09</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>365703788</t>
-        </is>
+      <c r="B9" t="n">
+        <v>365703788</v>
       </c>
       <c r="C9" t="n">
         <v>25261744</v>
@@ -5174,6 +5170,7 @@
           <t>[sl 18885.87]</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5181,10 +5178,8 @@
           <t>2025-04-24 22:03:27</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>365703642</t>
-        </is>
+      <c r="B10" t="n">
+        <v>365703642</v>
       </c>
       <c r="C10" t="n">
         <v>25261744</v>
@@ -5221,6 +5216,7 @@
           <t>[sl 18946.00]</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5228,10 +5224,8 @@
           <t>2025-04-24 22:25:19</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>365750973</t>
-        </is>
+      <c r="B11" t="n">
+        <v>365750973</v>
       </c>
       <c r="C11" t="n">
         <v>25261744</v>
@@ -5268,6 +5262,7 @@
           <t>[sl 18999.41]</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5275,10 +5270,8 @@
           <t>2025-04-24 22:39:07</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>365703980</t>
-        </is>
+      <c r="B12" t="n">
+        <v>365703980</v>
       </c>
       <c r="C12" t="n">
         <v>25261744</v>
@@ -5315,6 +5308,7 @@
           <t>[sl 19037.50]</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5322,10 +5316,8 @@
           <t>2025-04-24 22:44:07</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>365750977</t>
-        </is>
+      <c r="B13" t="n">
+        <v>365750977</v>
       </c>
       <c r="C13" t="n">
         <v>25261744</v>
@@ -5358,6 +5350,7 @@
         <v>10.7</v>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5365,10 +5358,8 @@
           <t>2025-04-24 22:44:28</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>365750982</t>
-        </is>
+      <c r="B14" t="n">
+        <v>365750982</v>
       </c>
       <c r="C14" t="n">
         <v>25261744</v>
@@ -5401,6 +5392,7 @@
         <v>8.76</v>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5408,10 +5400,8 @@
           <t>2025-04-24 22:48:11</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>365750988</t>
-        </is>
+      <c r="B15" t="n">
+        <v>365750988</v>
       </c>
       <c r="C15" t="n">
         <v>25261744</v>
@@ -5446,6 +5436,3199 @@
       <c r="K15" t="inlineStr">
         <is>
           <t>[sl 18979.73]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:44:08</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>375829162</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>21292.86</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21270.14</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:43:10</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[sl 21271.60]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:44:08</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>375829175</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>21292.86</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21270.14</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:43:11</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[sl 21271.67]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:44:08</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>375829185</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>21292.86</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21270.14</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:43:12</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[sl 21271.32]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:44:08</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>375829189</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>21293.16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21270.14</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:43:12</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[sl 21271.39]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:59:41</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>375843053</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>21231.14</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21242.86</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:53:08</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[sl 21242.82]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:59:41</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>375843030</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>21231.34</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21243.16</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:53:07</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[sl 21243.12]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:59:52</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>375842969</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>21231.34</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21249.66</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:53:07</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[sl 21249.44]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:59:58</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>375842941</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>21232.34</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21252.16</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-05-14 21:53:06</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[sl 21250.18]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:00:42</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>375911409</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>21284.36</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21271.59</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:58:26</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:00:42</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>375911416</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>21285.56</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21270.99</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:58:27</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:00:43</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>375911423</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>21286.16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21271.09</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:58:28</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:00:44</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>375911429</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>21286.66</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21271.89</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:58:28</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:06</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>375939367</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>21301.26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21290.79</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:34:46</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[sl 21291.23]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:06</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>375939357</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>21301.06</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21289.99</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:34:45</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[sl 21290.26]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:06</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>375939373</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>21300.36</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21289.99</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:34:46</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[sl 21290.58]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:06</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>375939385</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>21301.16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21289.99</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:34:47</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[sl 21290.69]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:06</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>375943633</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>21306.41</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21289.99</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:42:38</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[sl 21290.48]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:06</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>375943641</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>21306.51</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21289.99</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:42:40</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[sl 21290.69]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:06</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>375943646</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>21306.01</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21289.99</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:42:40</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[sl 21290.26]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:48:12</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>375943638</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>21306.91</v>
+      </c>
+      <c r="H35" t="n">
+        <v>21289.59</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-05-14 23:42:39</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>-3.46</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[sl 21289.72]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:40:01</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>376544635</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>21239.96</v>
+      </c>
+      <c r="H36" t="n">
+        <v>21207.84</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:37:52</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>-6.42</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[sl 21208.64]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:40:01</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>376544646</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>21240.36</v>
+      </c>
+      <c r="H37" t="n">
+        <v>21207.84</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:37:52</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[sl 21208.44]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:40:01</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>376544660</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>21241.96</v>
+      </c>
+      <c r="H38" t="n">
+        <v>21207.84</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:37:53</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>-6.82</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[sl 21208.84]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:40:02</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>376544615</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>21240.16</v>
+      </c>
+      <c r="H39" t="n">
+        <v>21207.34</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:37:51</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>-6.56</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[sl 21207.34]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:27:16</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>376600393</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>21241.16</v>
+      </c>
+      <c r="H40" t="n">
+        <v>21225.64</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:23:33</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[sl 21225.79]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:27:16</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>376600415</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>21241.86</v>
+      </c>
+      <c r="H41" t="n">
+        <v>21225.64</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:23:33</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[sl 21225.71]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:27:16</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>376600424</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>21242.76</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21225.64</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:23:34</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>-3.42</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[sl 21225.79]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:27:16</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>376600434</v>
+      </c>
+      <c r="C43" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>21242.46</v>
+      </c>
+      <c r="H43" t="n">
+        <v>21225.44</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:23:35</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[sl 21225.62]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:47:04</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>376660263</v>
+      </c>
+      <c r="C44" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>21317.71</v>
+      </c>
+      <c r="H44" t="n">
+        <v>21351.19</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:34:59</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[sl 21351.19]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:47:04</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>376660267</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>21317.71</v>
+      </c>
+      <c r="H45" t="n">
+        <v>21351.19</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:34:59</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[sl 21351.36]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:50:05</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>376655424</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>21309.21</v>
+      </c>
+      <c r="H46" t="n">
+        <v>21345.74</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:27:33</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:50:06</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>376655436</v>
+      </c>
+      <c r="C47" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>21308.71</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21345.74</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:27:34</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:46</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>376655429</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>21308.91</v>
+      </c>
+      <c r="H48" t="n">
+        <v>21343.69</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:27:34</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[sl 21344.36]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:46</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>376655439</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>21308.71</v>
+      </c>
+      <c r="H49" t="n">
+        <v>21343.69</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:27:35</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[sl 21344.36]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:59</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>376660281</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>21318.01</v>
+      </c>
+      <c r="H50" t="n">
+        <v>21336.69</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:35:00</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[sl 21337.45]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:59</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>376660309</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>21317.71</v>
+      </c>
+      <c r="H51" t="n">
+        <v>21336.69</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:35:00</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[sl 21337.56]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:59</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>376670669</v>
+      </c>
+      <c r="C52" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>21350.21</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21336.69</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:52:03</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[sl 21337.45]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:59</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>376670675</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>21349.21</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21336.69</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:52:04</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[sl 21337.11]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:59</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>376670680</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>21349.41</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21336.69</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:52:04</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[sl 21337.45]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:01:59</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>376670685</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>21349.21</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21336.69</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025-05-15 23:52:05</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[sl 21337.11]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:53</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>377249557</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>21334.54</v>
+      </c>
+      <c r="H56" t="n">
+        <v>21356.06</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:13</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[sl 21355.78]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:53</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>377249563</v>
+      </c>
+      <c r="C57" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>21335.34</v>
+      </c>
+      <c r="H57" t="n">
+        <v>21356.06</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:14</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[sl 21354.51]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:53</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>377249574</v>
+      </c>
+      <c r="C58" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>21335.54</v>
+      </c>
+      <c r="H58" t="n">
+        <v>21356.06</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:15</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[sl 21356.06]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:55</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>377238280</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>21340.44</v>
+      </c>
+      <c r="H59" t="n">
+        <v>21357.16</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:36:39</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[sl 21356.62]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:55</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>377242570</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>21339.84</v>
+      </c>
+      <c r="H60" t="n">
+        <v>21357.16</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:41:09</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>-3.46</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[sl 21356.76]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:55</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>377249547</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>21334.04</v>
+      </c>
+      <c r="H61" t="n">
+        <v>21357.16</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:49:12</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[sl 21356.62]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:18</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>377238287</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>21339.84</v>
+      </c>
+      <c r="H62" t="n">
+        <v>21362.66</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:36:39</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[sl 21362.39]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:18</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>377238295</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>21336.04</v>
+      </c>
+      <c r="H63" t="n">
+        <v>21362.66</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:36:40</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[sl 21362.25]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:18</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>377238353</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>21335.54</v>
+      </c>
+      <c r="H64" t="n">
+        <v>21362.66</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:36:41</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[sl 21362.39]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:18</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>377242535</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>21339.94</v>
+      </c>
+      <c r="H65" t="n">
+        <v>21362.66</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:41:07</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[sl 21362.53]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:18</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>377242551</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>21340.14</v>
+      </c>
+      <c r="H66" t="n">
+        <v>21362.66</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:41:08</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[sl 21362.11]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:18</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>377242561</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NAS100</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>21339.84</v>
+      </c>
+      <c r="H67" t="n">
+        <v>21362.66</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:41:08</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[sl 21362.53]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:05:12</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>377422159</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>103001.75</v>
+      </c>
+      <c r="H68" t="n">
+        <v>102948.36</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:04:30</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[sl 102948.36]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:05:12</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>377422160</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>103001.75</v>
+      </c>
+      <c r="H69" t="n">
+        <v>102948.36</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:04:30</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[sl 102948.36]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:05:12</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>377422161</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>103001.75</v>
+      </c>
+      <c r="H70" t="n">
+        <v>102948.36</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:04:31</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[sl 102948.36]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:05:12</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>377422162</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>103001.75</v>
+      </c>
+      <c r="H71" t="n">
+        <v>102948.36</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:04:32</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[sl 102948.36]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:20</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>377422546</v>
+      </c>
+      <c r="C72" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>102884.15</v>
+      </c>
+      <c r="H72" t="n">
+        <v>102860.76</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:18</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:21</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>377422548</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>102884.15</v>
+      </c>
+      <c r="H73" t="n">
+        <v>102860.76</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:18</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:22</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>377422550</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>102884.15</v>
+      </c>
+      <c r="H74" t="n">
+        <v>102860.76</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:19</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:22</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>377422551</v>
+      </c>
+      <c r="C75" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>102884.15</v>
+      </c>
+      <c r="H75" t="n">
+        <v>102860.76</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:18:19</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:43</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>377422982</v>
+      </c>
+      <c r="C76" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>103134.85</v>
+      </c>
+      <c r="H76" t="n">
+        <v>103115.06</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:40</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:44</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>377422983</v>
+      </c>
+      <c r="C77" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>103134.85</v>
+      </c>
+      <c r="H77" t="n">
+        <v>103115.06</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:41</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:44</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>377422984</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>103134.85</v>
+      </c>
+      <c r="H78" t="n">
+        <v>103115.06</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:41</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:45</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>377422985</v>
+      </c>
+      <c r="C79" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>103138.45</v>
+      </c>
+      <c r="H79" t="n">
+        <v>103115.06</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2025-05-17 10:29:42</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:52</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>377424149</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>103131.56</v>
+      </c>
+      <c r="H80" t="n">
+        <v>103154.95</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:47</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:52</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>377424150</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>103131.56</v>
+      </c>
+      <c r="H81" t="n">
+        <v>103156.55</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:48</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:53</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>377424151</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>103131.56</v>
+      </c>
+      <c r="H82" t="n">
+        <v>103156.55</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:48</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:54</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>377424153</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>103131.56</v>
+      </c>
+      <c r="H83" t="n">
+        <v>103156.55</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:16:49</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -4742,7 +4742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8430,10 +8430,8 @@
           <t>2025-05-17 11:16:52</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>377424149</t>
-        </is>
+      <c r="B80" t="n">
+        <v>377424149</v>
       </c>
       <c r="C80" t="n">
         <v>25261744</v>
@@ -8482,10 +8480,8 @@
           <t>2025-05-17 11:16:52</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>377424150</t>
-        </is>
+      <c r="B81" t="n">
+        <v>377424150</v>
       </c>
       <c r="C81" t="n">
         <v>25261744</v>
@@ -8534,10 +8530,8 @@
           <t>2025-05-17 11:16:53</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>377424151</t>
-        </is>
+      <c r="B82" t="n">
+        <v>377424151</v>
       </c>
       <c r="C82" t="n">
         <v>25261744</v>
@@ -8586,10 +8580,8 @@
           <t>2025-05-17 11:16:54</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>377424153</t>
-        </is>
+      <c r="B83" t="n">
+        <v>377424153</v>
       </c>
       <c r="C83" t="n">
         <v>25261744</v>
@@ -8627,6 +8619,414 @@
         </is>
       </c>
       <c r="L83" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:35</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>377424193</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>103161.65</v>
+      </c>
+      <c r="H84" t="n">
+        <v>103138.26</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:29</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:36</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>377424195</v>
+      </c>
+      <c r="C85" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>103161.65</v>
+      </c>
+      <c r="H85" t="n">
+        <v>103138.26</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:30</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:36</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>377424196</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>103161.65</v>
+      </c>
+      <c r="H86" t="n">
+        <v>103138.26</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:30</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:37</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>377424197</v>
+      </c>
+      <c r="C87" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>103161.65</v>
+      </c>
+      <c r="H87" t="n">
+        <v>103138.26</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:18:31</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:03</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>377425236</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>103461.65</v>
+      </c>
+      <c r="H88" t="n">
+        <v>103438.26</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:00</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:04</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>377425237</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>103461.65</v>
+      </c>
+      <c r="H89" t="n">
+        <v>103438.26</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:00</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:05</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>377425238</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>103461.65</v>
+      </c>
+      <c r="H90" t="n">
+        <v>103438.26</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:01</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:05</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>377425239</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>103461.65</v>
+      </c>
+      <c r="H91" t="n">
+        <v>103438.26</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2025-05-17 11:54:01</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -4742,7 +4742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8830,10 +8830,8 @@
           <t>2025-05-17 11:54:03</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>377425236</t>
-        </is>
+      <c r="B88" t="n">
+        <v>377425236</v>
       </c>
       <c r="C88" t="n">
         <v>25261744</v>
@@ -8882,10 +8880,8 @@
           <t>2025-05-17 11:54:04</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>377425237</t>
-        </is>
+      <c r="B89" t="n">
+        <v>377425237</v>
       </c>
       <c r="C89" t="n">
         <v>25261744</v>
@@ -8934,10 +8930,8 @@
           <t>2025-05-17 11:54:05</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>377425238</t>
-        </is>
+      <c r="B90" t="n">
+        <v>377425238</v>
       </c>
       <c r="C90" t="n">
         <v>25261744</v>
@@ -8986,10 +8980,8 @@
           <t>2025-05-17 11:54:05</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>377425239</t>
-        </is>
+      <c r="B91" t="n">
+        <v>377425239</v>
       </c>
       <c r="C91" t="n">
         <v>25261744</v>
@@ -9027,6 +9019,614 @@
         </is>
       </c>
       <c r="L91" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:10</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>377425422</v>
+      </c>
+      <c r="C92" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>103473.85</v>
+      </c>
+      <c r="H92" t="n">
+        <v>103424.86</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:07</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:11</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>377425423</v>
+      </c>
+      <c r="C93" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>103465.05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>103424.86</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:07</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:11</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>377425424</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>103465.05</v>
+      </c>
+      <c r="H94" t="n">
+        <v>103424.86</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:08</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:12</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>377425425</v>
+      </c>
+      <c r="C95" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>103465.05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>103424.86</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:02:09</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:13:40</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>377425621</v>
+      </c>
+      <c r="C96" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>103455.75</v>
+      </c>
+      <c r="H96" t="n">
+        <v>103409.68</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:11:49</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[sl 103410.06]</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:13:40</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>377425622</v>
+      </c>
+      <c r="C97" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>103455.75</v>
+      </c>
+      <c r="H97" t="n">
+        <v>103409.68</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:11:50</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[sl 103410.06]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:13:40</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>377425623</v>
+      </c>
+      <c r="C98" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>103455.75</v>
+      </c>
+      <c r="H98" t="n">
+        <v>103409.68</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:11:50</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>[sl 103410.06]</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:13:40</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>377425624</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>103455.75</v>
+      </c>
+      <c r="H99" t="n">
+        <v>103409.68</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:11:51</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>[sl 103410.06]</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:16:06</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>377425648</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>103454.25</v>
+      </c>
+      <c r="H100" t="n">
+        <v>103452.55</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:14:02</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[sl 103454.25]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:16:06</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>377425649</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>103454.25</v>
+      </c>
+      <c r="H101" t="n">
+        <v>103452.55</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:14:03</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[sl 103454.25]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:16:06</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>377425650</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>103454.25</v>
+      </c>
+      <c r="H102" t="n">
+        <v>103452.55</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:14:03</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[sl 103454.25]</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:16:06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>377425651</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>103454.25</v>
+      </c>
+      <c r="H103" t="n">
+        <v>103452.55</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2025-05-17 12:14:04</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[sl 103454.25]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="1510472103" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="25261744" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="76984945" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="76987947" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4742,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4851,8 +4853,6 @@
       <c r="J2" t="n">
         <v>0.01</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4893,8 +4893,6 @@
       <c r="J3" t="n">
         <v>-0.06</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4940,7 +4938,6 @@
           <t>[sl 18739.90]</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4986,7 +4983,6 @@
           <t>[sl 18738.25]</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5032,7 +5028,6 @@
           <t>[sl 18738.25]</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5078,7 +5073,6 @@
           <t>[sl 18735.97]</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5124,7 +5118,6 @@
           <t>[sl 18856.23]</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5170,7 +5163,6 @@
           <t>[sl 18885.87]</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5216,7 +5208,6 @@
           <t>[sl 18946.00]</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5262,7 +5253,6 @@
           <t>[sl 18999.41]</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5308,7 +5298,6 @@
           <t>[sl 19037.50]</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5349,8 +5338,6 @@
       <c r="J13" t="n">
         <v>10.7</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5391,8 +5378,6 @@
       <c r="J14" t="n">
         <v>8.76</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5438,7 +5423,6 @@
           <t>[sl 18979.73]</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5484,7 +5468,6 @@
           <t>[sl 21271.60]</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5530,7 +5513,6 @@
           <t>[sl 21271.67]</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5576,7 +5558,6 @@
           <t>[sl 21271.32]</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5622,7 +5603,6 @@
           <t>[sl 21271.39]</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5668,7 +5648,6 @@
           <t>[sl 21242.82]</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5714,7 +5693,6 @@
           <t>[sl 21243.12]</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5760,7 +5738,6 @@
           <t>[sl 21249.44]</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5806,7 +5783,6 @@
           <t>[sl 21250.18]</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5852,7 +5828,6 @@
           <t>close position</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5898,7 +5873,6 @@
           <t>close position</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5944,7 +5918,6 @@
           <t>close position</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5990,7 +5963,6 @@
           <t>close position</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6036,7 +6008,6 @@
           <t>[sl 21291.23]</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6082,7 +6053,6 @@
           <t>[sl 21290.26]</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6128,7 +6098,6 @@
           <t>[sl 21290.58]</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6174,7 +6143,6 @@
           <t>[sl 21290.69]</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6220,7 +6188,6 @@
           <t>[sl 21290.48]</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6266,7 +6233,6 @@
           <t>[sl 21290.69]</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6312,7 +6278,6 @@
           <t>[sl 21290.26]</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6358,7 +6323,6 @@
           <t>[sl 21289.72]</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6404,7 +6368,6 @@
           <t>[sl 21208.64]</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6450,7 +6413,6 @@
           <t>[sl 21208.44]</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6496,7 +6458,6 @@
           <t>[sl 21208.84]</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6542,7 +6503,6 @@
           <t>[sl 21207.34]</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6588,7 +6548,6 @@
           <t>[sl 21225.79]</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6634,7 +6593,6 @@
           <t>[sl 21225.71]</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6680,7 +6638,6 @@
           <t>[sl 21225.79]</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6726,7 +6683,6 @@
           <t>[sl 21225.62]</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6772,7 +6728,6 @@
           <t>[sl 21351.19]</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6818,7 +6773,6 @@
           <t>[sl 21351.36]</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6859,8 +6813,6 @@
       <c r="J46" t="n">
         <v>7.31</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6901,8 +6853,6 @@
       <c r="J47" t="n">
         <v>7.41</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6948,7 +6898,6 @@
           <t>[sl 21344.36]</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6994,7 +6943,6 @@
           <t>[sl 21344.36]</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7040,7 +6988,6 @@
           <t>[sl 21337.45]</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7086,7 +7033,6 @@
           <t>[sl 21337.56]</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7132,7 +7078,6 @@
           <t>[sl 21337.45]</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7178,7 +7123,6 @@
           <t>[sl 21337.11]</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7224,7 +7168,6 @@
           <t>[sl 21337.45]</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7270,7 +7213,6 @@
           <t>[sl 21337.11]</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7316,7 +7258,6 @@
           <t>[sl 21355.78]</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7362,7 +7303,6 @@
           <t>[sl 21354.51]</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7408,7 +7348,6 @@
           <t>[sl 21356.06]</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7454,7 +7393,6 @@
           <t>[sl 21356.62]</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7500,7 +7438,6 @@
           <t>[sl 21356.76]</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7546,7 +7483,6 @@
           <t>[sl 21356.62]</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7592,7 +7528,6 @@
           <t>[sl 21362.39]</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7638,7 +7573,6 @@
           <t>[sl 21362.25]</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7684,7 +7618,6 @@
           <t>[sl 21362.39]</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7730,7 +7663,6 @@
           <t>[sl 21362.53]</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7776,7 +7708,6 @@
           <t>[sl 21362.11]</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7822,7 +7753,6 @@
           <t>[sl 21362.53]</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9430,10 +9360,8 @@
           <t>2025-05-17 12:16:06</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>377425648</t>
-        </is>
+      <c r="B100" t="n">
+        <v>377425648</v>
       </c>
       <c r="C100" t="n">
         <v>25261744</v>
@@ -9482,10 +9410,8 @@
           <t>2025-05-17 12:16:06</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>377425649</t>
-        </is>
+      <c r="B101" t="n">
+        <v>377425649</v>
       </c>
       <c r="C101" t="n">
         <v>25261744</v>
@@ -9534,10 +9460,8 @@
           <t>2025-05-17 12:16:06</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>377425650</t>
-        </is>
+      <c r="B102" t="n">
+        <v>377425650</v>
       </c>
       <c r="C102" t="n">
         <v>25261744</v>
@@ -9586,10 +9510,8 @@
           <t>2025-05-17 12:16:06</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>377425651</t>
-        </is>
+      <c r="B103" t="n">
+        <v>377425651</v>
       </c>
       <c r="C103" t="n">
         <v>25261744</v>
@@ -9629,6 +9551,2994 @@
       <c r="L103" t="inlineStr">
         <is>
           <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:13</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>377427917</v>
+      </c>
+      <c r="C104" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>103388.12</v>
+      </c>
+      <c r="H104" t="n">
+        <v>103367.06</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:49:57</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:14</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>377427918</v>
+      </c>
+      <c r="C105" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>103388.12</v>
+      </c>
+      <c r="H105" t="n">
+        <v>103367.06</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:49:57</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:14</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>377427919</v>
+      </c>
+      <c r="C106" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>103388.12</v>
+      </c>
+      <c r="H106" t="n">
+        <v>103357.82</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:49:57</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:15</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>377427920</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>103388.12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>103354.26</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:49:57</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:32</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>377427942</v>
+      </c>
+      <c r="C108" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>103350.36</v>
+      </c>
+      <c r="H108" t="n">
+        <v>103390.35</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:19</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>[sl 103388.60]</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:32</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>377427944</v>
+      </c>
+      <c r="C109" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>103350.36</v>
+      </c>
+      <c r="H109" t="n">
+        <v>103390.35</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:20</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>[sl 103388.60]</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:32</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>377427945</v>
+      </c>
+      <c r="C110" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>103354.16</v>
+      </c>
+      <c r="H110" t="n">
+        <v>103390.35</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:20</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>[sl 103388.60]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:32</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>377427946</v>
+      </c>
+      <c r="C111" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>103358.26</v>
+      </c>
+      <c r="H111" t="n">
+        <v>103390.35</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2025-05-17 13:50:21</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>[sl 103388.60]</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:10:08</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>377462891</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>103961.75</v>
+      </c>
+      <c r="H112" t="n">
+        <v>103947.66</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:05:33</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>[sl 103960.75]</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:10:08</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>377462892</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>103961.75</v>
+      </c>
+      <c r="H113" t="n">
+        <v>103947.66</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:05:33</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>[sl 103960.75]</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:10:08</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>377462893</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>103955.1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>103947.66</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:05:34</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>[sl 103954.10]</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:10:08</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>377462894</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>25261744</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>103950.05</v>
+      </c>
+      <c r="H115" t="n">
+        <v>103947.66</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2025-05-18 16:05:35</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>[sl 103948.32]</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>close_time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>trading_day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>order_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>open_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>close_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>open_time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>519008808</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>21350.21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21333.27</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:31:45</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[sl 21333.27]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>519008734</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>21350.21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21333.27</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:31:45</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[sl 21333.27]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>519008718</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>21350.21</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21333.27</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:31:45</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[sl 21333.27]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>518996653</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>21332.84</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[sl 21332.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>519008725</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>21350.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21333.27</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:31:45</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[sl 21333.27]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>518996649</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>21332.84</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[sl 21332.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>518996658</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>21332.36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[sl 21332.36]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:34:17</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>518996656</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>21332.04</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[sl 21332.04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:53</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>519039118</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>21347.71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21336.72</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:06</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[sl 21336.72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:53</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>519039108</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>21347.71</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21336.72</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:06</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[sl 21336.72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:53</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>519039104</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>21347.71</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21336.72</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:06</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[sl 21336.72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:53</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>519039093</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>21347.71</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21336.72</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-05-30 19:42:06</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[sl 21336.72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:46:07</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>521233697</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:43:55</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:46:07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>521233717</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:43:55</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:46:07</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>521233676</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:43:55</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:46:07</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>521233683</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:43:55</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:50:11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>521244259</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:49:00</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:50:11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>521244251</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:49:00</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:50:11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>521244273</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:49:00</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:50:11</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>521244242</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:49:00</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:02:11</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>521267695</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21249.08</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:57:40</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[sl 21244.36]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:02:12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>521267766</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21256.19</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:57:40</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:04:02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>521267762</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21275.78</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:57:40</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:08:01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>521267760</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I25" t="n">
+        <v>21293.25</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-06-02 18:57:40</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[sl 21293.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:19:01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>521297616</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>21271.69</v>
+      </c>
+      <c r="I26" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:10:36</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>-6.55</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:19:01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>521297673</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>21271.93</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:10:36</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:19:01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>521297661</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>21271.53</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:10:36</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:19:01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>521297642</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>21271.93</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:10:36</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>close_time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>trading_day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>order_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>open_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>close_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>open_time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:45:45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>521368106</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>21327.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21351.89</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:44:03</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[sl 21351.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:45:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>521368098</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>21329.96</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21351.89</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:44:03</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[sl 21351.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:45:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>521368096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>21328.51</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21351.89</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:44:02</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[sl 21351.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:46:07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>521368079</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>21331.21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21348.3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:44:01</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:55:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>521370841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>21352.51</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21336</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:48:04</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[sl 21336.00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:03:53</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>521370869</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>21352.51</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21351.51</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:48:04</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[sl 21351.51]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:03:53</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>521370878</v>
+      </c>
+      <c r="D8" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>21352.51</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21351.51</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:48:04</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[sl 21351.51]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:03:53</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>521370861</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>21352.51</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21345.23</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-06-02 19:48:04</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[sl 21351.51]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:13:17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>521400076</v>
+      </c>
+      <c r="D10" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>21351.95</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21369.73</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:05:09</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[sl 21369.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:13:52</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>521400642</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>21357.47</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21383.04</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:05:21</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[sl 21383.04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:13:52</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>521400091</v>
+      </c>
+      <c r="D12" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>21353.97</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21383.04</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:05:10</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[sl 21383.04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:13:52</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>521400648</v>
+      </c>
+      <c r="D13" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>21357.47</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21383.04</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:05:21</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[sl 21383.04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:19:08</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>521417161</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>21366.23</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21357.03</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:15:41</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[sl 21357.03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:19:08</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>521417159</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>21366.23</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21357.03</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:15:41</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[sl 21357.03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:20:24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>521417169</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>21366.23</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21367.23</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:15:41</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[sl 21367.23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:20:24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>521417167</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>21366.23</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21367.23</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:15:41</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[sl 21367.23]</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -11668,7 +11668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12449,10 +12449,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>521417169</t>
-        </is>
+      <c r="C16" t="n">
+        <v>521417169</v>
       </c>
       <c r="D16" t="n">
         <v>76987947</v>
@@ -12501,10 +12499,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>521417167</t>
-        </is>
+      <c r="C17" t="n">
+        <v>521417167</v>
       </c>
       <c r="D17" t="n">
         <v>76987947</v>
@@ -12539,6 +12535,214 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>[sl 21367.23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:56:29</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>521462401</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>21380.41</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21408.55</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:48:50</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[sl 21408.55]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:56:29</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>521462404</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>21380.04</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21408.55</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:48:51</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[sl 21408.55]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:03:03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>521462411</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>21380.33</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21393.03</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:48:51</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[sl 21393.03]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:03:04</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>521462406</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>21380.04</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21392.37</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-06-02 20:48:51</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[sl 21392.37]</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>521368106</t>
-        </is>
+      <c r="C2" t="n">
+        <v>521368106</v>
       </c>
       <c r="D2" t="n">
         <v>76987947</v>
@@ -558,10 +556,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>521368098</t>
-        </is>
+      <c r="C3" t="n">
+        <v>521368098</v>
       </c>
       <c r="D3" t="n">
         <v>76987947</v>
@@ -610,10 +606,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>521368096</t>
-        </is>
+      <c r="C4" t="n">
+        <v>521368096</v>
       </c>
       <c r="D4" t="n">
         <v>76987947</v>
@@ -662,10 +656,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>521368079</t>
-        </is>
+      <c r="C5" t="n">
+        <v>521368079</v>
       </c>
       <c r="D5" t="n">
         <v>76987947</v>
@@ -714,10 +706,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>521370841</t>
-        </is>
+      <c r="C6" t="n">
+        <v>521370841</v>
       </c>
       <c r="D6" t="n">
         <v>76987947</v>
@@ -766,10 +756,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>521370869</t>
-        </is>
+      <c r="C7" t="n">
+        <v>521370869</v>
       </c>
       <c r="D7" t="n">
         <v>76987947</v>
@@ -818,10 +806,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>521370878</t>
-        </is>
+      <c r="C8" t="n">
+        <v>521370878</v>
       </c>
       <c r="D8" t="n">
         <v>76987947</v>
@@ -870,10 +856,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>521370861</t>
-        </is>
+      <c r="C9" t="n">
+        <v>521370861</v>
       </c>
       <c r="D9" t="n">
         <v>76987947</v>
@@ -922,10 +906,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>521400076</t>
-        </is>
+      <c r="C10" t="n">
+        <v>521400076</v>
       </c>
       <c r="D10" t="n">
         <v>76987947</v>
@@ -974,10 +956,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>521400642</t>
-        </is>
+      <c r="C11" t="n">
+        <v>521400642</v>
       </c>
       <c r="D11" t="n">
         <v>76987947</v>
@@ -1026,10 +1006,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>521400091</t>
-        </is>
+      <c r="C12" t="n">
+        <v>521400091</v>
       </c>
       <c r="D12" t="n">
         <v>76987947</v>
@@ -1078,10 +1056,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>521400648</t>
-        </is>
+      <c r="C13" t="n">
+        <v>521400648</v>
       </c>
       <c r="D13" t="n">
         <v>76987947</v>
@@ -1130,10 +1106,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>521417161</t>
-        </is>
+      <c r="C14" t="n">
+        <v>521417161</v>
       </c>
       <c r="D14" t="n">
         <v>76987947</v>
@@ -1182,10 +1156,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>521417159</t>
-        </is>
+      <c r="C15" t="n">
+        <v>521417159</v>
       </c>
       <c r="D15" t="n">
         <v>76987947</v>
@@ -1234,10 +1206,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>521417169</t>
-        </is>
+      <c r="C16" t="n">
+        <v>521417169</v>
       </c>
       <c r="D16" t="n">
         <v>76987947</v>
@@ -1286,10 +1256,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>521417167</t>
-        </is>
+      <c r="C17" t="n">
+        <v>521417167</v>
       </c>
       <c r="D17" t="n">
         <v>76987947</v>
@@ -1338,10 +1306,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>521462401</t>
-        </is>
+      <c r="C18" t="n">
+        <v>521462401</v>
       </c>
       <c r="D18" t="n">
         <v>76987947</v>
@@ -1390,10 +1356,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>521462404</t>
-        </is>
+      <c r="C19" t="n">
+        <v>521462404</v>
       </c>
       <c r="D19" t="n">
         <v>76987947</v>
@@ -1442,10 +1406,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>521462411</t>
-        </is>
+      <c r="C20" t="n">
+        <v>521462411</v>
       </c>
       <c r="D20" t="n">
         <v>76987947</v>
@@ -1494,10 +1456,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>521462406</t>
-        </is>
+      <c r="C21" t="n">
+        <v>521462406</v>
       </c>
       <c r="D21" t="n">
         <v>76987947</v>
@@ -1546,10 +1506,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>521935111</t>
-        </is>
+      <c r="C22" t="n">
+        <v>521935111</v>
       </c>
       <c r="D22" t="n">
         <v>76987947</v>
@@ -1598,10 +1556,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>521935114</t>
-        </is>
+      <c r="C23" t="n">
+        <v>521935114</v>
       </c>
       <c r="D23" t="n">
         <v>76987947</v>
@@ -1650,10 +1606,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>521935104</t>
-        </is>
+      <c r="C24" t="n">
+        <v>521935104</v>
       </c>
       <c r="D24" t="n">
         <v>76987947</v>
@@ -1702,10 +1656,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>521950991</t>
-        </is>
+      <c r="C25" t="n">
+        <v>521950991</v>
       </c>
       <c r="D25" t="n">
         <v>76987947</v>
@@ -1750,10 +1702,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>521950998</t>
-        </is>
+      <c r="C26" t="n">
+        <v>521950998</v>
       </c>
       <c r="D26" t="n">
         <v>76987947</v>
@@ -1798,10 +1748,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>521951012</t>
-        </is>
+      <c r="C27" t="n">
+        <v>521951012</v>
       </c>
       <c r="D27" t="n">
         <v>76987947</v>
@@ -1846,10 +1794,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>521951018</t>
-        </is>
+      <c r="C28" t="n">
+        <v>521951018</v>
       </c>
       <c r="D28" t="n">
         <v>76987947</v>
@@ -1894,10 +1840,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>521952093</t>
-        </is>
+      <c r="C29" t="n">
+        <v>521952093</v>
       </c>
       <c r="D29" t="n">
         <v>76987947</v>
@@ -1946,10 +1890,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>521952095</t>
-        </is>
+      <c r="C30" t="n">
+        <v>521952095</v>
       </c>
       <c r="D30" t="n">
         <v>76987947</v>
@@ -1998,10 +1940,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>521952097</t>
-        </is>
+      <c r="C31" t="n">
+        <v>521952097</v>
       </c>
       <c r="D31" t="n">
         <v>76987947</v>
@@ -2050,10 +1990,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>521952100</t>
-        </is>
+      <c r="C32" t="n">
+        <v>521952100</v>
       </c>
       <c r="D32" t="n">
         <v>76987947</v>
@@ -2102,10 +2040,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>521955380</t>
-        </is>
+      <c r="C33" t="n">
+        <v>521955380</v>
       </c>
       <c r="D33" t="n">
         <v>76987947</v>
@@ -2150,10 +2086,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>521955388</t>
-        </is>
+      <c r="C34" t="n">
+        <v>521955388</v>
       </c>
       <c r="D34" t="n">
         <v>76987947</v>
@@ -2198,10 +2132,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>521955395</t>
-        </is>
+      <c r="C35" t="n">
+        <v>521955395</v>
       </c>
       <c r="D35" t="n">
         <v>76987947</v>
@@ -2231,7 +2163,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L35" t="inlineStr"/>
     </row>
@@ -2246,10 +2178,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>521955588</t>
-        </is>
+      <c r="C36" t="n">
+        <v>521955588</v>
       </c>
       <c r="D36" t="n">
         <v>76987947</v>
@@ -2298,10 +2228,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>521955586</t>
-        </is>
+      <c r="C37" t="n">
+        <v>521955586</v>
       </c>
       <c r="D37" t="n">
         <v>76987947</v>
@@ -2350,10 +2278,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>521955587</t>
-        </is>
+      <c r="C38" t="n">
+        <v>521955587</v>
       </c>
       <c r="D38" t="n">
         <v>76987947</v>
@@ -2388,6 +2314,474 @@
       <c r="L38" t="inlineStr">
         <is>
           <t>[sl 3371.987]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:11</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>522048208</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>21440.79</v>
+      </c>
+      <c r="I39" t="n">
+        <v>21442.96</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:14:20</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:11</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>522048209</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>21440.79</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21442.96</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:14:21</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:11</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>522048210</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>21440.79</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21442.97</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:14:21</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:12</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>522050838</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>21441.53</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21442.97</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:15:58</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:12</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>522050841</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>21441.53</v>
+      </c>
+      <c r="I43" t="n">
+        <v>21442.97</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:15:58</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:12</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>522050849</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>21441.53</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21443.2</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:15:59</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>522051532</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3366.513</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3367.351</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:15</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>522051533</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3366.486</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3367.351</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:15</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>522051535</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3366.576</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3367.485</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-06-03 11:16:16</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>close position</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="76987947" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="76984945" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,10 +2329,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>522048208</t>
-        </is>
+      <c r="C39" t="n">
+        <v>522048208</v>
       </c>
       <c r="D39" t="n">
         <v>76987947</v>
@@ -2380,10 +2379,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>522048209</t>
-        </is>
+      <c r="C40" t="n">
+        <v>522048209</v>
       </c>
       <c r="D40" t="n">
         <v>76987947</v>
@@ -2432,10 +2429,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>522048210</t>
-        </is>
+      <c r="C41" t="n">
+        <v>522048210</v>
       </c>
       <c r="D41" t="n">
         <v>76987947</v>
@@ -2484,10 +2479,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>522050838</t>
-        </is>
+      <c r="C42" t="n">
+        <v>522050838</v>
       </c>
       <c r="D42" t="n">
         <v>76987947</v>
@@ -2536,10 +2529,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>522050841</t>
-        </is>
+      <c r="C43" t="n">
+        <v>522050841</v>
       </c>
       <c r="D43" t="n">
         <v>76987947</v>
@@ -2588,10 +2579,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>522050849</t>
-        </is>
+      <c r="C44" t="n">
+        <v>522050849</v>
       </c>
       <c r="D44" t="n">
         <v>76987947</v>
@@ -2640,10 +2629,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>522051532</t>
-        </is>
+      <c r="C45" t="n">
+        <v>522051532</v>
       </c>
       <c r="D45" t="n">
         <v>76987947</v>
@@ -2692,10 +2679,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>522051533</t>
-        </is>
+      <c r="C46" t="n">
+        <v>522051533</v>
       </c>
       <c r="D46" t="n">
         <v>76987947</v>
@@ -2744,10 +2729,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>522051535</t>
-        </is>
+      <c r="C47" t="n">
+        <v>522051535</v>
       </c>
       <c r="D47" t="n">
         <v>76987947</v>
@@ -2782,6 +2765,1063 @@
       <c r="L47" t="inlineStr">
         <is>
           <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-03 19:41:05</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>522635165</v>
+      </c>
+      <c r="D48" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>21491.91</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21503.61</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-06-03 19:34:55</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>[sl 21503.61]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-03 19:41:52</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>522635168</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>21491.91</v>
+      </c>
+      <c r="I49" t="n">
+        <v>21501.43</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-06-03 19:34:56</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-03 19:41:52</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>522635180</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>21492.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>21501.43</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-06-03 19:34:56</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>close_time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>trading_day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>order_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>open_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>close_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>open_time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:46:07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>521233697</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:43:55</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:46:07</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>521233717</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:43:55</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:46:07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>521233676</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:43:55</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:46:07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>521233683</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>21395.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21377.77</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:43:55</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[sl 21377.77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:50:11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>521244259</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:49:00</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:50:11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>521244251</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:49:00</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:50:11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>521244273</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:49:00</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:50:11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>521244242</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>21364.01</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21342.56</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:49:00</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[sl 21342.56]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:02:11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>521267695</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21249.08</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:57:40</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[sl 21244.36]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:02:12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>521267766</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21256.19</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:57:40</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:04:02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>521267762</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21275.78</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:57:40</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:08:01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>521267760</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>21296.87</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21293.25</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-06-02 21:57:40</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[sl 21293.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:19:01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>521297616</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>21271.69</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:10:36</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-6.55</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:19:01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>521297673</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>21271.93</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:10:36</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:19:01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>521297661</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>21271.53</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:10:36</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:19:01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>521297642</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>21271.93</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21304.44</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-06-02 22:10:36</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[sl 21304.44]</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2829,10 +2829,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>522635168</t>
-        </is>
+      <c r="C49" t="n">
+        <v>522635168</v>
       </c>
       <c r="D49" t="n">
         <v>76987947</v>
@@ -2881,10 +2879,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>522635180</t>
-        </is>
+      <c r="C50" t="n">
+        <v>522635180</v>
       </c>
       <c r="D50" t="n">
         <v>76987947</v>
@@ -2919,6 +2915,2116 @@
       <c r="L50" t="inlineStr">
         <is>
           <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:36:57</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>534952186</v>
+      </c>
+      <c r="D51" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3374.77</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3370.29</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:23:05</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>-49.28</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>[sl 3370.290]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:36:57</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>534952195</v>
+      </c>
+      <c r="D52" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3374.812</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3370.29</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:23:06</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>-13.57</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[sl 3370.290]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:36:57</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>534952190</v>
+      </c>
+      <c r="D53" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3374.77</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3370.29</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:23:05</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>-13.44</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[sl 3370.290]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:36:57</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>534952193</v>
+      </c>
+      <c r="D54" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3374.832</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3370.29</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:23:05</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>-13.63</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[sl 3370.290]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:40:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>534973407</v>
+      </c>
+      <c r="D55" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3370.212</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3373.219</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:37:17</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>-15.04</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>[sl 3373.219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:40:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>534973401</v>
+      </c>
+      <c r="D56" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3370.162</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3373.219</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:37:16</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>-15.29</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>[sl 3373.219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:40:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>534973415</v>
+      </c>
+      <c r="D57" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3370.347</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3373.219</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:37:17</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>-14.36</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[sl 3373.219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:40:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>534973395</v>
+      </c>
+      <c r="D58" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3370.162</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3373.219</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-06-12 09:37:16</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>-48.91</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[sl 3373.219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:56:20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>535119227</v>
+      </c>
+      <c r="D59" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3374.313</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3372.207</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:50:04</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:54:46</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>535168455</v>
+      </c>
+      <c r="D60" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3371.876</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3371.48</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:54:40</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:58:06</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>535171172</v>
+      </c>
+      <c r="D61" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3372.238</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3372.098</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:58:00</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:59:16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>535172076</v>
+      </c>
+      <c r="D62" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3371.14</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3370.97</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:59:10</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:02:18</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>535177676</v>
+      </c>
+      <c r="D63" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3369.119</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3369.069</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:02:12</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:06:12</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>535180632</v>
+      </c>
+      <c r="D64" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3370.712</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3370.544</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:06:05</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:10:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>535183558</v>
+      </c>
+      <c r="D65" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3371.32</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3371.295</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:09:54</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:15:37</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>535185719</v>
+      </c>
+      <c r="D66" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3371.196</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3371.96</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:15:31</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-12 15:19:56</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>535163028</v>
+      </c>
+      <c r="D67" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3371.96</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3370.018</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:47:23</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-12 15:19:56</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>535165314</v>
+      </c>
+      <c r="D68" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3373.154</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3370.018</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:51:34</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-12 15:44:19</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>535165306</v>
+      </c>
+      <c r="D69" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3339.29</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3339.159</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-06-12 15:44:18</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-12 17:44:52</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>535573712</v>
+      </c>
+      <c r="D70" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3360.903</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3360.551</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-06-12 17:44:46</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-12 17:46:49</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>535576050</v>
+      </c>
+      <c r="D71" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3362.315</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3361.955</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-06-12 17:46:43</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-12 17:52:16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>535586965</v>
+      </c>
+      <c r="D72" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3366.685</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3366.09</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-06-12 17:52:10</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Close Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>535971253</v>
+      </c>
+      <c r="D73" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3381.82</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3381.613</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:10</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>535971255</v>
+      </c>
+      <c r="D74" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3381.82</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3381.613</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:10</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>535971259</v>
+      </c>
+      <c r="D75" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3381.712</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3381.569</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:10</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>535971265</v>
+      </c>
+      <c r="D76" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3381.712</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3381.569</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:27:10</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:08</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>536188495</v>
+      </c>
+      <c r="D77" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>21943.84</v>
+      </c>
+      <c r="I77" t="n">
+        <v>21953.72</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:10:12</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:08</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>536188501</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>21943.84</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21953.72</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:10:12</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:08</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>536188504</v>
+      </c>
+      <c r="D79" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>21944.36</v>
+      </c>
+      <c r="I79" t="n">
+        <v>21953.72</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:10:12</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:09</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>536188512</v>
+      </c>
+      <c r="D80" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>21943.67</v>
+      </c>
+      <c r="I80" t="n">
+        <v>21953.78</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:10:13</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:18</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>536191589</v>
+      </c>
+      <c r="D81" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>21953.79</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21935.21</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:10</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>[sl 21935.21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:18</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>536191596</v>
+      </c>
+      <c r="D82" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>21953.28</v>
+      </c>
+      <c r="I82" t="n">
+        <v>21935.21</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:11</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>[sl 21935.21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:18</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>536191582</v>
+      </c>
+      <c r="D83" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>21954.73</v>
+      </c>
+      <c r="I83" t="n">
+        <v>21935.21</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:10</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>[sl 21935.21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>536191593</v>
+      </c>
+      <c r="D84" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>21953.79</v>
+      </c>
+      <c r="I84" t="n">
+        <v>21935.21</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:12:11</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>[sl 21935.21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:20:57</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>536201313</v>
+      </c>
+      <c r="D85" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>21929.92</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21927.78</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:34</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>[sl 21927.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:24:09</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>536201335</v>
+      </c>
+      <c r="D86" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>21930.37</v>
+      </c>
+      <c r="I86" t="n">
+        <v>21915.55</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:34</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>[sl 21915.55]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:29:37</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>536201341</v>
+      </c>
+      <c r="D87" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>21930.17</v>
+      </c>
+      <c r="I87" t="n">
+        <v>21916.48</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:34</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>[sl 21916.48]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:29:37</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>536201346</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>21930.17</v>
+      </c>
+      <c r="I88" t="n">
+        <v>21916.48</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:17:35</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>[sl 21916.48]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:29:37</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>536219709</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>21895.59</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21916.55</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:25:45</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>[sl 21916.55]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:29:37</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>536219714</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>21895.19</v>
+      </c>
+      <c r="I90" t="n">
+        <v>21916.55</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:25:46</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>[sl 21916.55]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:29:37</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>536219719</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>21895.58</v>
+      </c>
+      <c r="I91" t="n">
+        <v>21916.55</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:25:46</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>[sl 21916.55]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:29:37</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>536219724</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>21895.41</v>
+      </c>
+      <c r="I92" t="n">
+        <v>21916.55</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:25:46</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>[sl 21916.55]</t>
         </is>
       </c>
     </row>
@@ -2933,7 +5039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,10 +5120,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>521233697</t>
-        </is>
+      <c r="C2" t="n">
+        <v>521233697</v>
       </c>
       <c r="D2" t="n">
         <v>76984945</v>
@@ -3066,10 +5170,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>521233717</t>
-        </is>
+      <c r="C3" t="n">
+        <v>521233717</v>
       </c>
       <c r="D3" t="n">
         <v>76984945</v>
@@ -3118,10 +5220,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>521233676</t>
-        </is>
+      <c r="C4" t="n">
+        <v>521233676</v>
       </c>
       <c r="D4" t="n">
         <v>76984945</v>
@@ -3170,10 +5270,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>521233683</t>
-        </is>
+      <c r="C5" t="n">
+        <v>521233683</v>
       </c>
       <c r="D5" t="n">
         <v>76984945</v>
@@ -3222,10 +5320,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>521244259</t>
-        </is>
+      <c r="C6" t="n">
+        <v>521244259</v>
       </c>
       <c r="D6" t="n">
         <v>76984945</v>
@@ -3274,10 +5370,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>521244251</t>
-        </is>
+      <c r="C7" t="n">
+        <v>521244251</v>
       </c>
       <c r="D7" t="n">
         <v>76984945</v>
@@ -3326,10 +5420,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>521244273</t>
-        </is>
+      <c r="C8" t="n">
+        <v>521244273</v>
       </c>
       <c r="D8" t="n">
         <v>76984945</v>
@@ -3378,10 +5470,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>521244242</t>
-        </is>
+      <c r="C9" t="n">
+        <v>521244242</v>
       </c>
       <c r="D9" t="n">
         <v>76984945</v>
@@ -3430,10 +5520,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>521267695</t>
-        </is>
+      <c r="C10" t="n">
+        <v>521267695</v>
       </c>
       <c r="D10" t="n">
         <v>76984945</v>
@@ -3482,10 +5570,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>521267766</t>
-        </is>
+      <c r="C11" t="n">
+        <v>521267766</v>
       </c>
       <c r="D11" t="n">
         <v>76984945</v>
@@ -3529,10 +5615,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>521267762</t>
-        </is>
+      <c r="C12" t="n">
+        <v>521267762</v>
       </c>
       <c r="D12" t="n">
         <v>76984945</v>
@@ -3576,10 +5660,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>521267760</t>
-        </is>
+      <c r="C13" t="n">
+        <v>521267760</v>
       </c>
       <c r="D13" t="n">
         <v>76984945</v>
@@ -3628,10 +5710,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>521297616</t>
-        </is>
+      <c r="C14" t="n">
+        <v>521297616</v>
       </c>
       <c r="D14" t="n">
         <v>76984945</v>
@@ -3680,10 +5760,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>521297673</t>
-        </is>
+      <c r="C15" t="n">
+        <v>521297673</v>
       </c>
       <c r="D15" t="n">
         <v>76984945</v>
@@ -3732,10 +5810,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>521297661</t>
-        </is>
+      <c r="C16" t="n">
+        <v>521297661</v>
       </c>
       <c r="D16" t="n">
         <v>76984945</v>
@@ -3784,10 +5860,8 @@
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>521297642</t>
-        </is>
+      <c r="C17" t="n">
+        <v>521297642</v>
       </c>
       <c r="D17" t="n">
         <v>76984945</v>
@@ -3822,6 +5896,2810 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>[sl 21304.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:11:23</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>530811233</v>
+      </c>
+      <c r="D18" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>21849.08</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21849.19</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:05:48</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[sl 21849.19]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:13:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>530811227</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>21849.31</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21848.31</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:05:48</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[sl 21848.31]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:13:31</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>530811240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>21849.01</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21848.01</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:05:49</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[sl 21848.01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:13:32</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>530811232</v>
+      </c>
+      <c r="D21" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>21849.08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21848.08</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:05:48</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[sl 21848.08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:54:16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>532375012</v>
+      </c>
+      <c r="D22" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>21857.78</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21863.78</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:49:23</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[sl 21863.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:54:41</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>532375025</v>
+      </c>
+      <c r="D23" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>21857.78</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21856.78</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:49:23</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[sl 21856.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:54:41</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>532375018</v>
+      </c>
+      <c r="D24" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>21857.78</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21856.78</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:49:23</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[sl 21856.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:54:41</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>532375031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>21857.78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>21856.78</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-06-10 21:49:23</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[sl 21856.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:22:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>532442444</v>
+      </c>
+      <c r="D26" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>21867.89</v>
+      </c>
+      <c r="I26" t="n">
+        <v>21856.96</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:15:45</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[sl 21856.96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:22:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>532442470</v>
+      </c>
+      <c r="D27" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>21867.89</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21856.96</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:15:45</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[sl 21856.96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:22:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>532442411</v>
+      </c>
+      <c r="D28" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>21867.89</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21856.96</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:15:45</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[sl 21856.96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:22:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>532442491</v>
+      </c>
+      <c r="D29" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>21867.89</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21856.96</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:15:45</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[sl 21856.96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:36:49</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>532484502</v>
+      </c>
+      <c r="D30" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>21870.52</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21863.92</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:34:52</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[sl 21863.92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:36:49</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>532484506</v>
+      </c>
+      <c r="D31" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>21870.52</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21863.92</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:34:52</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[sl 21863.92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:36:49</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>532484521</v>
+      </c>
+      <c r="D32" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>21870.52</v>
+      </c>
+      <c r="I32" t="n">
+        <v>21863.92</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:34:52</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[sl 21863.92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:36:49</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>532484514</v>
+      </c>
+      <c r="D33" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>21870.52</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21863.92</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:34:52</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[sl 21863.92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:51:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>532505960</v>
+      </c>
+      <c r="D34" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>21877.33</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21863.76</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:46:10</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[sl 21863.76]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:51:30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>532506059</v>
+      </c>
+      <c r="D35" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>21877.33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>21863.76</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:46:10</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[sl 21863.76]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:51:30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>532505825</v>
+      </c>
+      <c r="D36" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>21876.78</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21863.76</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:46:10</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[sl 21863.76]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:51:30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>532506133</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>21877.74</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21863.76</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:46:11</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[sl 21863.76]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:48:50</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>534138391</v>
+      </c>
+      <c r="D38" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>21978.85</v>
+      </c>
+      <c r="I38" t="n">
+        <v>21926.35</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:40:21</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[sl 21926.35]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:48:50</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>534138375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>21978.85</v>
+      </c>
+      <c r="I39" t="n">
+        <v>21926.35</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:40:21</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[sl 21926.35]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:51:11</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>534138416</v>
+      </c>
+      <c r="D40" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>21978.85</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21963.02</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:40:21</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[sl 21963.02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:51:12</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>534138431</v>
+      </c>
+      <c r="D41" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>21978.85</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21965.47</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:40:21</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:08:07</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>534187740</v>
+      </c>
+      <c r="D42" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>21987.81</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21969.58</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:56:04</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[sl 21969.58]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:08:07</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>534187729</v>
+      </c>
+      <c r="D43" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>21987.11</v>
+      </c>
+      <c r="I43" t="n">
+        <v>21969.18</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:56:04</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[sl 21969.18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:08:07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>534187709</v>
+      </c>
+      <c r="D44" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>21989.22</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21969.38</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:56:03</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[sl 21969.38]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:08:07</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>534187716</v>
+      </c>
+      <c r="D45" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>21988.08</v>
+      </c>
+      <c r="I45" t="n">
+        <v>21969.38</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-06-11 21:56:03</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[sl 21969.38]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:28:37</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>534234525</v>
+      </c>
+      <c r="D46" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>22010.84</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22028.2</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:18:35</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[sl 22028.20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:28:37</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>534234519</v>
+      </c>
+      <c r="D47" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>22010.84</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22028.2</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:18:35</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>[sl 22028.20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:32:05</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>534234528</v>
+      </c>
+      <c r="D48" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>22011.02</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22021.41</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:18:36</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:35:53</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>534259919</v>
+      </c>
+      <c r="D49" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>22028.84</v>
+      </c>
+      <c r="I49" t="n">
+        <v>22028.84</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:33:10</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>[sl 22028.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:35:53</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>534259908</v>
+      </c>
+      <c r="D50" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>22028.88</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22028.88</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:33:09</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>[sl 22028.88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:35:53</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>534259910</v>
+      </c>
+      <c r="D51" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>22028.84</v>
+      </c>
+      <c r="I51" t="n">
+        <v>22028.84</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:33:09</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>[sl 22028.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:35:53</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>534259900</v>
+      </c>
+      <c r="D52" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>22028.88</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22028.88</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:33:09</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[sl 22028.88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:37:51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>534234533</v>
+      </c>
+      <c r="D53" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>22011.02</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22030.37</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-06-11 22:18:36</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[sl 22030.37]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:55:14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>536037767</v>
+      </c>
+      <c r="D54" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>21881.54</v>
+      </c>
+      <c r="I54" t="n">
+        <v>21864.25</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:52:48</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>-48.76</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[sl 21864.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:55:14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>536037772</v>
+      </c>
+      <c r="D55" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>21881.03</v>
+      </c>
+      <c r="I55" t="n">
+        <v>21864.25</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:52:48</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>[sl 21864.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:55:14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>536037777</v>
+      </c>
+      <c r="D56" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>21881.03</v>
+      </c>
+      <c r="I56" t="n">
+        <v>21864.25</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:52:49</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>-14.93</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>[sl 21864.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:55:15</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>536037784</v>
+      </c>
+      <c r="D57" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>21880.31</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21864.25</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-06-12 21:52:49</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[sl 21864.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:39:27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>536119366</v>
+      </c>
+      <c r="D58" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>21915.6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>21928.75</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:27:05</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[sl 21928.75]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:42:14</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>536119377</v>
+      </c>
+      <c r="D59" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>21915.07</v>
+      </c>
+      <c r="I59" t="n">
+        <v>21932.67</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:27:06</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:50:19</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>536119387</v>
+      </c>
+      <c r="D60" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>21914.71</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21938.21</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:27:06</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:52:23</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>536119397</v>
+      </c>
+      <c r="D61" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>21914.71</v>
+      </c>
+      <c r="I61" t="n">
+        <v>21930.1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:27:06</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:57:57</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>536164125</v>
+      </c>
+      <c r="D62" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>21935.29</v>
+      </c>
+      <c r="I62" t="n">
+        <v>21926.91</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:54:14</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>-14.33</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[sl 21926.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:57:57</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>536164130</v>
+      </c>
+      <c r="D63" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>21935.29</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21926.91</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:54:14</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>-15</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[sl 21926.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:57:57</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>536164117</v>
+      </c>
+      <c r="D64" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>21935.67</v>
+      </c>
+      <c r="I64" t="n">
+        <v>21926.91</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:54:14</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>-15.59</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>[sl 21926.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:57:57</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>536164100</v>
+      </c>
+      <c r="D65" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>21935.1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>21926.91</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:54:14</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>-50.04</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>[sl 21926.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:49</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>536169720</v>
+      </c>
+      <c r="D66" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>21930.61</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21930.71</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:30</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:49</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>536169733</v>
+      </c>
+      <c r="D67" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>21930.87</v>
+      </c>
+      <c r="I67" t="n">
+        <v>21930.99</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:31</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:49</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>536169742</v>
+      </c>
+      <c r="D68" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>21931.37</v>
+      </c>
+      <c r="I68" t="n">
+        <v>21930.99</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:31</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:49</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>536169984</v>
+      </c>
+      <c r="D69" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>21931.37</v>
+      </c>
+      <c r="I69" t="n">
+        <v>21931.82</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:58:31</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:00:01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>536171423</v>
+      </c>
+      <c r="D70" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>21925.12</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21934.38</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:59:07</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>[sl 21934.38]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:00:01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>536171426</v>
+      </c>
+      <c r="D71" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>21925.44</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21934.38</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:59:07</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[sl 21934.38]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:00:11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>536171436</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>21925.44</v>
+      </c>
+      <c r="I72" t="n">
+        <v>21938.86</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:59:08</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[sl 21938.86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-12 23:00:11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>536171429</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>21925.44</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21938.86</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:59:07</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[sl 21938.86]</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4779,10 +4779,8 @@
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>536201346</t>
-        </is>
+      <c r="C88" t="n">
+        <v>536201346</v>
       </c>
       <c r="D88" t="n">
         <v>76987947</v>
@@ -4831,10 +4829,8 @@
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>536219709</t>
-        </is>
+      <c r="C89" t="n">
+        <v>536219709</v>
       </c>
       <c r="D89" t="n">
         <v>76987947</v>
@@ -4883,10 +4879,8 @@
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>536219714</t>
-        </is>
+      <c r="C90" t="n">
+        <v>536219714</v>
       </c>
       <c r="D90" t="n">
         <v>76987947</v>
@@ -4935,10 +4929,8 @@
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>536219719</t>
-        </is>
+      <c r="C91" t="n">
+        <v>536219719</v>
       </c>
       <c r="D91" t="n">
         <v>76987947</v>
@@ -4987,10 +4979,8 @@
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>536219724</t>
-        </is>
+      <c r="C92" t="n">
+        <v>536219724</v>
       </c>
       <c r="D92" t="n">
         <v>76987947</v>
@@ -5025,6 +5015,4158 @@
       <c r="L92" t="inlineStr">
         <is>
           <t>[sl 21916.55]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:52:21</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>540194446</v>
+      </c>
+      <c r="D93" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>21858.98</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21880.83</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:37:03</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>[sl 21880.83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:58:10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>540194458</v>
+      </c>
+      <c r="D94" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>21858.98</v>
+      </c>
+      <c r="I94" t="n">
+        <v>21938.41</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:37:03</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>[sl 21938.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:04:23</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>540194436</v>
+      </c>
+      <c r="D95" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>21858.98</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21944.41</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:37:04</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>[sl 21944.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:15:18</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>540194469</v>
+      </c>
+      <c r="D96" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>21858.98</v>
+      </c>
+      <c r="I96" t="n">
+        <v>21960.37</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:37:04</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>[sl 21960.37]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:22:20</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>540350788</v>
+      </c>
+      <c r="D97" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>21942.95</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21967.18</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:11:07</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>[sl 21967.18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:35:26</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>540350797</v>
+      </c>
+      <c r="D98" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>21942.95</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21982.44</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:11:08</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>[sl 21982.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:35:26</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>540350807</v>
+      </c>
+      <c r="D99" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>21942.95</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21982.44</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:11:08</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>[sl 21982.44]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:37:23</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>540380772</v>
+      </c>
+      <c r="D100" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>21971.47</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21971.29</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:24:22</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>[sl 21971.29]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:37:23</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>540380780</v>
+      </c>
+      <c r="D101" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>21970.04</v>
+      </c>
+      <c r="I101" t="n">
+        <v>21971.5</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:24:23</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>[sl 21971.50]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:37:23</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>540380775</v>
+      </c>
+      <c r="D102" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>21970.94</v>
+      </c>
+      <c r="I102" t="n">
+        <v>21971.08</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:24:23</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>[sl 21971.08]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:37:23</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>540350817</v>
+      </c>
+      <c r="D103" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>21942.95</v>
+      </c>
+      <c r="I103" t="n">
+        <v>21970.67</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:11:08</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>[sl 21970.67]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:37:24</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>540380771</v>
+      </c>
+      <c r="D104" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>21971.47</v>
+      </c>
+      <c r="I104" t="n">
+        <v>21970.88</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:24:22</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>[sl 21970.88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:42:02</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>542097001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>21866.66</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21853.67</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:38:50</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>[sl 21853.67]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:42:02</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>542096972</v>
+      </c>
+      <c r="D106" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>21866.66</v>
+      </c>
+      <c r="I106" t="n">
+        <v>21853.67</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:38:50</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>[sl 21853.67]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:42:02</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>542097015</v>
+      </c>
+      <c r="D107" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>21866.66</v>
+      </c>
+      <c r="I107" t="n">
+        <v>21853.67</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:38:50</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>[sl 21853.67]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:42:02</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>542096988</v>
+      </c>
+      <c r="D108" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>21866.66</v>
+      </c>
+      <c r="I108" t="n">
+        <v>21853.67</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:38:50</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>[sl 21853.67]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:51:53</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>542127294</v>
+      </c>
+      <c r="D109" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>21847.32</v>
+      </c>
+      <c r="I109" t="n">
+        <v>21859.09</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:49:06</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>[sl 21859.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:51:53</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>542127284</v>
+      </c>
+      <c r="D110" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>21847.32</v>
+      </c>
+      <c r="I110" t="n">
+        <v>21859.09</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:49:06</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>[sl 21859.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:51:53</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>542127270</v>
+      </c>
+      <c r="D111" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>21847.63</v>
+      </c>
+      <c r="I111" t="n">
+        <v>21859.09</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:49:05</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>[sl 21859.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:51:53</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>542127276</v>
+      </c>
+      <c r="D112" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>21847.19</v>
+      </c>
+      <c r="I112" t="n">
+        <v>21859.09</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:49:06</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>-5.24</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>[sl 21859.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:04:30</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>542161336</v>
+      </c>
+      <c r="D113" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>21877.15</v>
+      </c>
+      <c r="I113" t="n">
+        <v>21862.95</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:03:20</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>[sl 21862.95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:04:30</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>542161290</v>
+      </c>
+      <c r="D114" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>21877.15</v>
+      </c>
+      <c r="I114" t="n">
+        <v>21862.95</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:03:20</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>[sl 21862.95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:04:31</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>542161318</v>
+      </c>
+      <c r="D115" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>21877.15</v>
+      </c>
+      <c r="I115" t="n">
+        <v>21862.95</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:03:20</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>[sl 21862.95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:24:43</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>542214124</v>
+      </c>
+      <c r="D116" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>21902.92</v>
+      </c>
+      <c r="I116" t="n">
+        <v>21890.75</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:20:08</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>[sl 21890.75]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:24:43</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>542214133</v>
+      </c>
+      <c r="D117" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>21902.92</v>
+      </c>
+      <c r="I117" t="n">
+        <v>21890.75</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:20:08</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>[sl 21890.75]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:24:43</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>542214118</v>
+      </c>
+      <c r="D118" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>21902.92</v>
+      </c>
+      <c r="I118" t="n">
+        <v>21890.75</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:20:08</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>[sl 21890.75]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:24:43</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>542214103</v>
+      </c>
+      <c r="D119" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>21902.92</v>
+      </c>
+      <c r="I119" t="n">
+        <v>21890.75</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2025-06-17 22:20:08</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>[sl 21890.75]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:16:16</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>542251060</v>
+      </c>
+      <c r="D120" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>21901.36</v>
+      </c>
+      <c r="I120" t="n">
+        <v>21888.98</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:09:32</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>[sl 21888.98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:16:16</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>542251027</v>
+      </c>
+      <c r="D121" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>21901.36</v>
+      </c>
+      <c r="I121" t="n">
+        <v>21888.98</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:09:32</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>[sl 21888.98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:16:16</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>542251032</v>
+      </c>
+      <c r="D122" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>21901.36</v>
+      </c>
+      <c r="I122" t="n">
+        <v>21888.98</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:09:32</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>[sl 21888.98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:16:16</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>542251071</v>
+      </c>
+      <c r="D123" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>21901.36</v>
+      </c>
+      <c r="I123" t="n">
+        <v>21888.98</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2025-06-17 23:09:32</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>[sl 21888.98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:04</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>544059141</v>
+      </c>
+      <c r="D124" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>21746.33</v>
+      </c>
+      <c r="I124" t="n">
+        <v>21752.15</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:03</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>[sl 21752.15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:05</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>544059131</v>
+      </c>
+      <c r="D125" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>21745.94</v>
+      </c>
+      <c r="I125" t="n">
+        <v>21752.15</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:02</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>-5.34</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>[sl 21752.15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:05</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>544059135</v>
+      </c>
+      <c r="D126" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>21745.94</v>
+      </c>
+      <c r="I126" t="n">
+        <v>21752.15</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:02</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>[sl 21752.15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:05</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>544059122</v>
+      </c>
+      <c r="D127" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>21746.32</v>
+      </c>
+      <c r="I127" t="n">
+        <v>21752.15</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:40:02</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>[sl 21752.15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:41</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>544078989</v>
+      </c>
+      <c r="D128" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3390.831</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3391.024</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:27</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:41</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>544078991</v>
+      </c>
+      <c r="D129" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3390.831</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3391.024</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:28</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:41</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>544078994</v>
+      </c>
+      <c r="D130" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3390.831</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3391.138</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:28</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:41</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>544078998</v>
+      </c>
+      <c r="D131" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>XAUUSDm</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3390.831</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3391.138</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:49:28</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:40</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>544087516</v>
+      </c>
+      <c r="D132" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>21789.14</v>
+      </c>
+      <c r="I132" t="n">
+        <v>21786.17</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:33</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:40</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>544087521</v>
+      </c>
+      <c r="D133" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>21789.14</v>
+      </c>
+      <c r="I133" t="n">
+        <v>21785.77</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:33</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:40</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>544087528</v>
+      </c>
+      <c r="D134" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>21788.21</v>
+      </c>
+      <c r="I134" t="n">
+        <v>21785.82</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:34</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:41</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>544087535</v>
+      </c>
+      <c r="D135" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>21788.62</v>
+      </c>
+      <c r="I135" t="n">
+        <v>21785.8</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2025-06-18 21:54:34</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:18:26</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>544124655</v>
+      </c>
+      <c r="D136" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>21811.21</v>
+      </c>
+      <c r="I136" t="n">
+        <v>21841.66</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:07:54</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:26:05</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>544124654</v>
+      </c>
+      <c r="D137" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>21811.21</v>
+      </c>
+      <c r="I137" t="n">
+        <v>21849.62</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:07:54</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>[sl 21849.62]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:26:05</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>544124663</v>
+      </c>
+      <c r="D138" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>21811.47</v>
+      </c>
+      <c r="I138" t="n">
+        <v>21849.62</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:07:55</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>[sl 21849.62]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:26:05</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>544124660</v>
+      </c>
+      <c r="D139" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>21811.47</v>
+      </c>
+      <c r="I139" t="n">
+        <v>21849.62</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:07:55</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>[sl 21849.62]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:28:56</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>544128838</v>
+      </c>
+      <c r="D140" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>21811.51</v>
+      </c>
+      <c r="I140" t="n">
+        <v>21858.15</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:09:49</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>[sl 21858.15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:28:56</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>544128853</v>
+      </c>
+      <c r="D141" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>21810.54</v>
+      </c>
+      <c r="I141" t="n">
+        <v>21858.15</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:09:50</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>[sl 21858.15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:28:56</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>544128846</v>
+      </c>
+      <c r="D142" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>21810.8</v>
+      </c>
+      <c r="I142" t="n">
+        <v>21858.15</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:09:49</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>[sl 21858.15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:36:52</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>544131195</v>
+      </c>
+      <c r="D143" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>21813.08</v>
+      </c>
+      <c r="I143" t="n">
+        <v>21868.71</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:11:05</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>[sl 21868.71]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:36:52</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>544131205</v>
+      </c>
+      <c r="D144" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>21812.56</v>
+      </c>
+      <c r="I144" t="n">
+        <v>21868.71</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:11:05</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>[sl 21868.71]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:36:53</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>544128861</v>
+      </c>
+      <c r="D145" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>21810.54</v>
+      </c>
+      <c r="I145" t="n">
+        <v>21868.71</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:09:50</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>[sl 21868.71]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:24</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>544131214</v>
+      </c>
+      <c r="D146" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>21812.56</v>
+      </c>
+      <c r="I146" t="n">
+        <v>21872.43</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:11:05</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>[sl 21872.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:24</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>544131234</v>
+      </c>
+      <c r="D147" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>21812.56</v>
+      </c>
+      <c r="I147" t="n">
+        <v>21872.43</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:11:06</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>[sl 21872.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:24</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>544138709</v>
+      </c>
+      <c r="D148" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>21826.68</v>
+      </c>
+      <c r="I148" t="n">
+        <v>21872.43</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:13:13</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>[sl 21872.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:54</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>544138727</v>
+      </c>
+      <c r="D149" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>21826.68</v>
+      </c>
+      <c r="I149" t="n">
+        <v>21858.58</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:13:14</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>[sl 21858.58]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:54</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>544149056</v>
+      </c>
+      <c r="D150" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>21831.2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>21858.38</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:16:45</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>[sl 21858.38]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:54</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>544143150</v>
+      </c>
+      <c r="D151" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>21833.95</v>
+      </c>
+      <c r="I151" t="n">
+        <v>21858.19</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:14:40</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>[sl 21858.19]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:54</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>544138782</v>
+      </c>
+      <c r="D152" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>21826.8</v>
+      </c>
+      <c r="I152" t="n">
+        <v>21858.38</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:13:14</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>[sl 21858.38]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:56</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>544143137</v>
+      </c>
+      <c r="D153" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>21834.22</v>
+      </c>
+      <c r="I153" t="n">
+        <v>21857.79</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:14:39</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>[sl 21857.79]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:56</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>544147017</v>
+      </c>
+      <c r="D154" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>21838.53</v>
+      </c>
+      <c r="I154" t="n">
+        <v>21857.79</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:15:43</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>[sl 21857.79]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:56</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>544146990</v>
+      </c>
+      <c r="D155" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>21838.53</v>
+      </c>
+      <c r="I155" t="n">
+        <v>21857.4</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:15:42</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>[sl 21857.40]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:56</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>544147028</v>
+      </c>
+      <c r="D156" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>21838.98</v>
+      </c>
+      <c r="I156" t="n">
+        <v>21857.59</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:15:43</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>[sl 21857.59]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:57</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>544149054</v>
+      </c>
+      <c r="D157" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>21831.2</v>
+      </c>
+      <c r="I157" t="n">
+        <v>21857.2</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:16:45</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>[sl 21857.20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:57</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>544138762</v>
+      </c>
+      <c r="D158" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>21827.43</v>
+      </c>
+      <c r="I158" t="n">
+        <v>21857</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:13:14</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>[sl 21857.00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:57</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>544143143</v>
+      </c>
+      <c r="D159" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>21834.04</v>
+      </c>
+      <c r="I159" t="n">
+        <v>21857</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:14:39</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>[sl 21857.00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:57</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>544149063</v>
+      </c>
+      <c r="D160" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>21831.91</v>
+      </c>
+      <c r="I160" t="n">
+        <v>21856.21</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:16:46</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>[sl 21856.21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:57</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>544143159</v>
+      </c>
+      <c r="D161" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>21834.24</v>
+      </c>
+      <c r="I161" t="n">
+        <v>21856.41</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:14:40</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>[sl 21856.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:40:57</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>544147006</v>
+      </c>
+      <c r="D162" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>21838.53</v>
+      </c>
+      <c r="I162" t="n">
+        <v>21856.41</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:15:42</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>[sl 21856.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:41:27</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>544149069</v>
+      </c>
+      <c r="D163" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>21832.19</v>
+      </c>
+      <c r="I163" t="n">
+        <v>21854.35</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2025-06-18 22:16:46</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>[sl 21854.35]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:45:35</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>547307515</v>
+      </c>
+      <c r="D164" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>21911.83</v>
+      </c>
+      <c r="I164" t="n">
+        <v>21884.04</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:44:23</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>-5.56</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>[sl 21884.04]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:45:35</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>547307534</v>
+      </c>
+      <c r="D165" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>21911</v>
+      </c>
+      <c r="I165" t="n">
+        <v>21884.24</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:44:23</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>-5.35</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>[sl 21884.24]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:45:49</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>547307544</v>
+      </c>
+      <c r="D166" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>21911.43</v>
+      </c>
+      <c r="I166" t="n">
+        <v>21886.15</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:44:24</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>-5.06</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:48:47</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>547307558</v>
+      </c>
+      <c r="D167" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>21911.75</v>
+      </c>
+      <c r="I167" t="n">
+        <v>21864.61</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:44:25</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>-9.43</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:52:35</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>547321525</v>
+      </c>
+      <c r="D168" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>21862.16</v>
+      </c>
+      <c r="I168" t="n">
+        <v>21846.3</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:49:09</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>[sl 21846.30]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:00:16</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>547321528</v>
+      </c>
+      <c r="D169" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>21861.87</v>
+      </c>
+      <c r="I169" t="n">
+        <v>21815.5</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:49:09</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>[sl 21815.50]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:04:10</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>547321532</v>
+      </c>
+      <c r="D170" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>21862.44</v>
+      </c>
+      <c r="I170" t="n">
+        <v>21808.94</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:49:10</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:27:15</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>547401466</v>
+      </c>
+      <c r="D171" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>21782.01</v>
+      </c>
+      <c r="I171" t="n">
+        <v>21699.8</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:20:02</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>[sl 21699.80]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:27:15</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>547321535</v>
+      </c>
+      <c r="D172" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>21862.12</v>
+      </c>
+      <c r="I172" t="n">
+        <v>21699.8</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2025-06-20 21:49:10</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>[sl 21699.80]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:27:15</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>547401443</v>
+      </c>
+      <c r="D173" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>21782.01</v>
+      </c>
+      <c r="I173" t="n">
+        <v>21699.8</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:20:02</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>[sl 21699.80]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:32:04</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>547401475</v>
+      </c>
+      <c r="D174" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>21782.01</v>
+      </c>
+      <c r="I174" t="n">
+        <v>21726</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:20:02</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>[sl 21726.00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:37:53</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>547401486</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>21782.01</v>
+      </c>
+      <c r="I175" t="n">
+        <v>21745.88</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:20:02</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>[sl 21745.88]</t>
         </is>
       </c>
     </row>
@@ -5039,7 +9181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8610,10 +12752,8 @@
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>536171436</t>
-        </is>
+      <c r="C72" t="n">
+        <v>536171436</v>
       </c>
       <c r="D72" t="n">
         <v>76984945</v>
@@ -8662,10 +12802,8 @@
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>536171429</t>
-        </is>
+      <c r="C73" t="n">
+        <v>536171429</v>
       </c>
       <c r="D73" t="n">
         <v>76984945</v>
@@ -8700,6 +12838,1630 @@
       <c r="L73" t="inlineStr">
         <is>
           <t>[sl 21938.86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:47</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>538127859</v>
+      </c>
+      <c r="D74" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>21813.89</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21829.82</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:45:36</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:47</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>538127872</v>
+      </c>
+      <c r="D75" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>21814.48</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21829.82</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:45:37</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:48</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>538127893</v>
+      </c>
+      <c r="D76" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>21814.23</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21830.04</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:45:37</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:48</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>538127900</v>
+      </c>
+      <c r="D77" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>21814.23</v>
+      </c>
+      <c r="I77" t="n">
+        <v>21830.04</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:45:37</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:52:59</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>538136499</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>21832.99</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21833.64</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:50</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:52:59</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>538136527</v>
+      </c>
+      <c r="D79" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>21832.99</v>
+      </c>
+      <c r="I79" t="n">
+        <v>21833.64</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:50</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>538136533</v>
+      </c>
+      <c r="D80" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>21833.41</v>
+      </c>
+      <c r="I80" t="n">
+        <v>21833.13</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:50</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>538136549</v>
+      </c>
+      <c r="D81" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>21833.76</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21833.54</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:51:51</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>538137324</v>
+      </c>
+      <c r="D82" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>21837.29</v>
+      </c>
+      <c r="I82" t="n">
+        <v>21833.54</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:52:09</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>538137327</v>
+      </c>
+      <c r="D83" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>21837.29</v>
+      </c>
+      <c r="I83" t="n">
+        <v>21833.54</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:52:09</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:01</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>538137331</v>
+      </c>
+      <c r="D84" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>21837.29</v>
+      </c>
+      <c r="I84" t="n">
+        <v>21833.81</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:52:10</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:01</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>538137334</v>
+      </c>
+      <c r="D85" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>21836.74</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21833.81</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:52:10</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>538139062</v>
+      </c>
+      <c r="D86" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>21833.41</v>
+      </c>
+      <c r="I86" t="n">
+        <v>21835.82</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:54</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:23</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>538139063</v>
+      </c>
+      <c r="D87" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>21833.41</v>
+      </c>
+      <c r="I87" t="n">
+        <v>21836.31</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:55</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:23</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>538139065</v>
+      </c>
+      <c r="D88" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>21833.41</v>
+      </c>
+      <c r="I88" t="n">
+        <v>21836.31</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:55</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:23</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>538139067</v>
+      </c>
+      <c r="D89" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>21833.68</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21836.31</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:53:55</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>538139195</v>
+      </c>
+      <c r="D90" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>21835.17</v>
+      </c>
+      <c r="I90" t="n">
+        <v>21837.03</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:02</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:24</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>538139205</v>
+      </c>
+      <c r="D91" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>21836.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>21837.03</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:02</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:24</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>538139209</v>
+      </c>
+      <c r="D92" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>21836.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>21837.03</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:02</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:24</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>538139212</v>
+      </c>
+      <c r="D93" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>21836.21</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21837.03</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:03</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:18</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>538139480</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>21837.79</v>
+      </c>
+      <c r="I94" t="n">
+        <v>21834.48</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:26</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:18</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>538139485</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>21837.79</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21834.48</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:26</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:19</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>538139489</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>21837.73</v>
+      </c>
+      <c r="I96" t="n">
+        <v>21834.58</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:27</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:19</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>538139496</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>21837.62</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21834.58</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:27</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:19</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>538139533</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>21838.37</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21834.58</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:29</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:19</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>538139535</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>21838.37</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21834.36</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:29</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:20</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>538139536</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>21838.37</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21833.1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:29</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:20</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>538139538</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>21838.37</v>
+      </c>
+      <c r="I101" t="n">
+        <v>21833.1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:29</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:20</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>538139551</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>21838.71</v>
+      </c>
+      <c r="I102" t="n">
+        <v>21833.54</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:31</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:21</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>538139557</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>21838.93</v>
+      </c>
+      <c r="I103" t="n">
+        <v>21833.54</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:31</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:21</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>538139559</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>21838.93</v>
+      </c>
+      <c r="I104" t="n">
+        <v>21833.8</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:32</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:55:21</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>538139561</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>21838.93</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21833.8</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2025-06-13 23:54:32</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>close position</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,7 +1690,6 @@
       <c r="K25" t="n">
         <v>-0.01</v>
       </c>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1736,7 +1735,6 @@
       <c r="K26" t="n">
         <v>-0.02</v>
       </c>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1782,7 +1780,6 @@
       <c r="K27" t="n">
         <v>-0.02</v>
       </c>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1828,7 +1825,6 @@
       <c r="K28" t="n">
         <v>-0.02</v>
       </c>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2074,7 +2070,6 @@
       <c r="K33" t="n">
         <v>-0.01</v>
       </c>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2120,7 +2115,6 @@
       <c r="K34" t="n">
         <v>-0.01</v>
       </c>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2166,7 +2160,6 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9129,10 +9122,8 @@
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>547401486</t>
-        </is>
+      <c r="C175" t="n">
+        <v>547401486</v>
       </c>
       <c r="D175" t="n">
         <v>76987947</v>
@@ -9167,6 +9158,422 @@
       <c r="L175" t="inlineStr">
         <is>
           <t>[sl 21745.88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:50:12</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>550012222</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>21667.15</v>
+      </c>
+      <c r="I176" t="n">
+        <v>21700.42</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:39:58</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>[sl 21700.42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:55:30</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>550012251</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>21667.15</v>
+      </c>
+      <c r="I177" t="n">
+        <v>21713.23</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:39:58</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>[sl 21713.23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:07:48</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>550012268</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>21667.15</v>
+      </c>
+      <c r="I178" t="n">
+        <v>21771.95</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:39:58</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>[sl 21771.95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:36:33</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>550173820</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>21788.33</v>
+      </c>
+      <c r="I179" t="n">
+        <v>21776.8</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:29:02</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:36:34</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>550173810</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>21787.05</v>
+      </c>
+      <c r="I180" t="n">
+        <v>21776.27</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:29:02</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:36:39</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>550173794</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>21785.57</v>
+      </c>
+      <c r="I181" t="n">
+        <v>21774.52</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:29:01</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:36:41</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>550173803</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>21786.61</v>
+      </c>
+      <c r="I182" t="n">
+        <v>21774.74</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:29:02</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:36:48</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>550012272</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>21667.15</v>
+      </c>
+      <c r="I183" t="n">
+        <v>21773.27</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:39:58</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>close position</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9745,6 +10152,7 @@
       <c r="K11" t="n">
         <v>8.140000000000001</v>
       </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9790,6 +10198,7 @@
       <c r="K12" t="n">
         <v>4.22</v>
       </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13852,10 +14261,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>538139480</t>
-        </is>
+      <c r="C94" t="n">
+        <v>538139480</v>
       </c>
       <c r="D94" t="n">
         <v>76984945</v>
@@ -13904,10 +14311,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>538139485</t>
-        </is>
+      <c r="C95" t="n">
+        <v>538139485</v>
       </c>
       <c r="D95" t="n">
         <v>76984945</v>
@@ -13956,10 +14361,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>538139489</t>
-        </is>
+      <c r="C96" t="n">
+        <v>538139489</v>
       </c>
       <c r="D96" t="n">
         <v>76984945</v>
@@ -14008,10 +14411,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>538139496</t>
-        </is>
+      <c r="C97" t="n">
+        <v>538139496</v>
       </c>
       <c r="D97" t="n">
         <v>76984945</v>
@@ -14060,10 +14461,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>538139533</t>
-        </is>
+      <c r="C98" t="n">
+        <v>538139533</v>
       </c>
       <c r="D98" t="n">
         <v>76984945</v>
@@ -14112,10 +14511,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>538139535</t>
-        </is>
+      <c r="C99" t="n">
+        <v>538139535</v>
       </c>
       <c r="D99" t="n">
         <v>76984945</v>
@@ -14164,10 +14561,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>538139536</t>
-        </is>
+      <c r="C100" t="n">
+        <v>538139536</v>
       </c>
       <c r="D100" t="n">
         <v>76984945</v>
@@ -14216,10 +14611,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>538139538</t>
-        </is>
+      <c r="C101" t="n">
+        <v>538139538</v>
       </c>
       <c r="D101" t="n">
         <v>76984945</v>
@@ -14268,10 +14661,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>538139551</t>
-        </is>
+      <c r="C102" t="n">
+        <v>538139551</v>
       </c>
       <c r="D102" t="n">
         <v>76984945</v>
@@ -14320,10 +14711,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>538139557</t>
-        </is>
+      <c r="C103" t="n">
+        <v>538139557</v>
       </c>
       <c r="D103" t="n">
         <v>76984945</v>
@@ -14372,10 +14761,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>538139559</t>
-        </is>
+      <c r="C104" t="n">
+        <v>538139559</v>
       </c>
       <c r="D104" t="n">
         <v>76984945</v>
@@ -14424,10 +14811,8 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>538139561</t>
-        </is>
+      <c r="C105" t="n">
+        <v>538139561</v>
       </c>
       <c r="D105" t="n">
         <v>76984945</v>
@@ -14462,6 +14847,1562 @@
       <c r="L105" t="inlineStr">
         <is>
           <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:36</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>551214169</v>
+      </c>
+      <c r="D106" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>22030.21</v>
+      </c>
+      <c r="I106" t="n">
+        <v>22027.36</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:33</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:37</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>551214188</v>
+      </c>
+      <c r="D107" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>22030.21</v>
+      </c>
+      <c r="I107" t="n">
+        <v>22027.36</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:33</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:37</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>551214196</v>
+      </c>
+      <c r="D108" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>22030.21</v>
+      </c>
+      <c r="I108" t="n">
+        <v>22027.26</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:33</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:37</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>551214201</v>
+      </c>
+      <c r="D109" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>22030.21</v>
+      </c>
+      <c r="I109" t="n">
+        <v>22027.26</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:33</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:45</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>551214352</v>
+      </c>
+      <c r="D110" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>22027.8</v>
+      </c>
+      <c r="I110" t="n">
+        <v>22029.79</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:42</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:45</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>551214355</v>
+      </c>
+      <c r="D111" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>22027.8</v>
+      </c>
+      <c r="I111" t="n">
+        <v>22030.26</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:42</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:45</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>551214359</v>
+      </c>
+      <c r="D112" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>22027.8</v>
+      </c>
+      <c r="I112" t="n">
+        <v>22030.26</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:42</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:45</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>551214369</v>
+      </c>
+      <c r="D113" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>22027.8</v>
+      </c>
+      <c r="I113" t="n">
+        <v>22030.26</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:42</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:50</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>551214459</v>
+      </c>
+      <c r="D114" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>22028.35</v>
+      </c>
+      <c r="I114" t="n">
+        <v>22030.34</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:48</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:19:04</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>551214511</v>
+      </c>
+      <c r="D115" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>22031.42</v>
+      </c>
+      <c r="I115" t="n">
+        <v>22030.02</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:18:58</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:45:13</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>551470741</v>
+      </c>
+      <c r="D116" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>22140.36</v>
+      </c>
+      <c r="I116" t="n">
+        <v>22145.58</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:42:14</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>[sl 22145.58]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:45:13</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>551470727</v>
+      </c>
+      <c r="D117" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>22140.4</v>
+      </c>
+      <c r="I117" t="n">
+        <v>22145.58</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:42:14</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>[sl 22145.58]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:45:13</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>551470734</v>
+      </c>
+      <c r="D118" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>22140.36</v>
+      </c>
+      <c r="I118" t="n">
+        <v>22145.58</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:42:14</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>[sl 22145.58]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:45:23</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>551469967</v>
+      </c>
+      <c r="D119" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>22138.81</v>
+      </c>
+      <c r="I119" t="n">
+        <v>22145.67</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:41:46</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:47:20</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>551480058</v>
+      </c>
+      <c r="D120" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>22149.76</v>
+      </c>
+      <c r="I120" t="n">
+        <v>22138.42</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:46:01</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>[sl 22138.42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:47:20</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>551480107</v>
+      </c>
+      <c r="D121" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>22149.76</v>
+      </c>
+      <c r="I121" t="n">
+        <v>22138.42</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:46:01</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>[sl 22138.42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:47:20</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>551480121</v>
+      </c>
+      <c r="D122" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>22149.76</v>
+      </c>
+      <c r="I122" t="n">
+        <v>22138.42</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:46:01</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>[sl 22138.42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:50:09</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>551482981</v>
+      </c>
+      <c r="D123" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>22137.17</v>
+      </c>
+      <c r="I123" t="n">
+        <v>22149.13</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:47:39</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>[sl 22149.13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:50:09</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>551482979</v>
+      </c>
+      <c r="D124" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>22137.17</v>
+      </c>
+      <c r="I124" t="n">
+        <v>22149.13</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:47:39</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>[sl 22149.13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:50:09</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>551482976</v>
+      </c>
+      <c r="D125" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>22137.17</v>
+      </c>
+      <c r="I125" t="n">
+        <v>22149.13</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2025-06-24 14:47:39</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>[sl 22149.13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:11:39</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>551528104</v>
+      </c>
+      <c r="D126" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>22145.82</v>
+      </c>
+      <c r="I126" t="n">
+        <v>22148.42</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:11:28</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:11:39</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>551528118</v>
+      </c>
+      <c r="D127" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>22145.82</v>
+      </c>
+      <c r="I127" t="n">
+        <v>22148.42</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:11:28</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:15:54</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>551528411</v>
+      </c>
+      <c r="D128" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>22157.38</v>
+      </c>
+      <c r="I128" t="n">
+        <v>22144.92</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:14:05</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>[sl 22144.92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:15:54</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>551528419</v>
+      </c>
+      <c r="D129" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>22157.38</v>
+      </c>
+      <c r="I129" t="n">
+        <v>22144.92</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:14:05</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>[sl 22144.92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:15:55</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>551528417</v>
+      </c>
+      <c r="D130" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>22157.38</v>
+      </c>
+      <c r="I130" t="n">
+        <v>22144.92</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:14:05</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>[sl 22144.92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:48:33</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>551590296</v>
+      </c>
+      <c r="D131" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>22119.32</v>
+      </c>
+      <c r="I131" t="n">
+        <v>22107.93</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:47:03</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>[sl 22107.93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:48:33</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>551590291</v>
+      </c>
+      <c r="D132" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>22119.39</v>
+      </c>
+      <c r="I132" t="n">
+        <v>22107.93</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:47:03</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>[sl 22107.93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:48:33</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>551590303</v>
+      </c>
+      <c r="D133" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>22119.32</v>
+      </c>
+      <c r="I133" t="n">
+        <v>22107.93</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:47:03</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>[sl 22107.93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:58:17</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>551594406</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>22096.43</v>
+      </c>
+      <c r="I134" t="n">
+        <v>22097.43</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:51:27</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>[sl 22097.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:58:17</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>551594399</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>22096.43</v>
+      </c>
+      <c r="I135" t="n">
+        <v>22097.43</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:51:26</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>[sl 22097.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:58:17</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>551594395</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>22096.43</v>
+      </c>
+      <c r="I136" t="n">
+        <v>22097.43</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:51:26</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>[sl 22097.43]</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -9588,7 +9588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16261,10 +16261,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>551594406</t>
-        </is>
+      <c r="C134" t="n">
+        <v>551594406</v>
       </c>
       <c r="D134" t="n">
         <v>76984945</v>
@@ -16313,10 +16311,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>551594399</t>
-        </is>
+      <c r="C135" t="n">
+        <v>551594399</v>
       </c>
       <c r="D135" t="n">
         <v>76984945</v>
@@ -16365,10 +16361,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>551594395</t>
-        </is>
+      <c r="C136" t="n">
+        <v>551594395</v>
       </c>
       <c r="D136" t="n">
         <v>76984945</v>
@@ -16403,6 +16397,618 @@
       <c r="L136" t="inlineStr">
         <is>
           <t>[sl 22097.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:50:28</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>551694991</v>
+      </c>
+      <c r="D137" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>22099.99</v>
+      </c>
+      <c r="I137" t="n">
+        <v>22098.11</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:50:20</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:50:28</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>551694993</v>
+      </c>
+      <c r="D138" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>22099.99</v>
+      </c>
+      <c r="I138" t="n">
+        <v>22098.11</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:50:20</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:50:28</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>551695008</v>
+      </c>
+      <c r="D139" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>22099.99</v>
+      </c>
+      <c r="I139" t="n">
+        <v>22098.35</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:50:21</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:53:04</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>551699311</v>
+      </c>
+      <c r="D140" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>22095.65</v>
+      </c>
+      <c r="I140" t="n">
+        <v>22094.8</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:53:00</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:53:04</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>551699334</v>
+      </c>
+      <c r="D141" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>22094.79</v>
+      </c>
+      <c r="I141" t="n">
+        <v>22095.09</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:53:01</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:53:05</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>551699346</v>
+      </c>
+      <c r="D142" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>22095.04</v>
+      </c>
+      <c r="I142" t="n">
+        <v>22094.67</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:53:01</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:09</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>551710157</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>22105.27</v>
+      </c>
+      <c r="I143" t="n">
+        <v>22107.91</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:00:35</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:10</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>551710167</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>22105.27</v>
+      </c>
+      <c r="I144" t="n">
+        <v>22107.7</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:00:35</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:10</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>551710177</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>22105.4</v>
+      </c>
+      <c r="I145" t="n">
+        <v>22107.7</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:00:35</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:10</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>551722329</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>22109.95</v>
+      </c>
+      <c r="I146" t="n">
+        <v>22107.89</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:03</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:10</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>551722338</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>22109.95</v>
+      </c>
+      <c r="I147" t="n">
+        <v>22107.89</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:03</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:11</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>551722343</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>22109.95</v>
+      </c>
+      <c r="I148" t="n">
+        <v>22107.89</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:03</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>close position</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="76987947" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="76984945" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="530264445" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9172,10 +9173,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>550012222</t>
-        </is>
+      <c r="C176" t="n">
+        <v>550012222</v>
       </c>
       <c r="D176" t="n">
         <v>76987947</v>
@@ -9224,10 +9223,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>550012251</t>
-        </is>
+      <c r="C177" t="n">
+        <v>550012251</v>
       </c>
       <c r="D177" t="n">
         <v>76987947</v>
@@ -9276,10 +9273,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>550012268</t>
-        </is>
+      <c r="C178" t="n">
+        <v>550012268</v>
       </c>
       <c r="D178" t="n">
         <v>76987947</v>
@@ -9328,10 +9323,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>550173820</t>
-        </is>
+      <c r="C179" t="n">
+        <v>550173820</v>
       </c>
       <c r="D179" t="n">
         <v>76987947</v>
@@ -9380,10 +9373,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>550173810</t>
-        </is>
+      <c r="C180" t="n">
+        <v>550173810</v>
       </c>
       <c r="D180" t="n">
         <v>76987947</v>
@@ -9432,10 +9423,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>550173794</t>
-        </is>
+      <c r="C181" t="n">
+        <v>550173794</v>
       </c>
       <c r="D181" t="n">
         <v>76987947</v>
@@ -9484,10 +9473,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>550173803</t>
-        </is>
+      <c r="C182" t="n">
+        <v>550173803</v>
       </c>
       <c r="D182" t="n">
         <v>76987947</v>
@@ -9536,10 +9523,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>550012272</t>
-        </is>
+      <c r="C183" t="n">
+        <v>550012272</v>
       </c>
       <c r="D183" t="n">
         <v>76987947</v>
@@ -9572,6 +9557,890 @@
         <v>19.1</v>
       </c>
       <c r="L183" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:44:11</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>552164155</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>22103.9</v>
+      </c>
+      <c r="I184" t="n">
+        <v>22113.48</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:40:03</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>[sl 22113.48]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:44:51</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>552164172</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>22103.62</v>
+      </c>
+      <c r="I185" t="n">
+        <v>22103.62</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:40:03</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>[sl 22103.62]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:49:09</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>552164191</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>22103.12</v>
+      </c>
+      <c r="I186" t="n">
+        <v>22120.96</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:40:03</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>[sl 22120.96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:50:06</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>552164214</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>22102.62</v>
+      </c>
+      <c r="I187" t="n">
+        <v>22102.62</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:40:04</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>[sl 22102.62]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:20</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>552207078</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>22087.12</v>
+      </c>
+      <c r="I188" t="n">
+        <v>22100.85</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:05</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>[sl 22100.85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:20</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>552207097</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>22086.26</v>
+      </c>
+      <c r="I189" t="n">
+        <v>22100.85</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:05</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>[sl 22100.85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:20</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>552207109</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>22087.01</v>
+      </c>
+      <c r="I190" t="n">
+        <v>22100.85</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:06</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>[sl 22100.85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:21</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>552207116</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>22087.41</v>
+      </c>
+      <c r="I191" t="n">
+        <v>22100.85</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2025-06-24 21:56:06</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>[sl 22100.85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:28:04</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>552283290</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>22116.04</v>
+      </c>
+      <c r="I192" t="n">
+        <v>22103.02</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:25:30</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>[sl 22103.02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:28:04</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>552283275</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>22115.6</v>
+      </c>
+      <c r="I193" t="n">
+        <v>22103.02</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:25:30</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>[sl 22103.02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:28:04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>552283281</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>22115.6</v>
+      </c>
+      <c r="I194" t="n">
+        <v>22103.02</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:25:30</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>[sl 22103.02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:28:04</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>552283306</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>22116.04</v>
+      </c>
+      <c r="I195" t="n">
+        <v>22103.02</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:25:31</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>[sl 22103.02]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:45:27</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>552314129</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>22113.97</v>
+      </c>
+      <c r="I196" t="n">
+        <v>22130.8</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:40:07</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>[sl 22130.80]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:47:03</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>552314973</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>22118.21</v>
+      </c>
+      <c r="I197" t="n">
+        <v>22128.2</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:40:45</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>[sl 22128.20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:50:52</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>552315000</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>22118.21</v>
+      </c>
+      <c r="I198" t="n">
+        <v>22118.21</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:40:46</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>[sl 22118.21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:50:52</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>552315006</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>22118.21</v>
+      </c>
+      <c r="I199" t="n">
+        <v>22118.21</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:40:46</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>[sl 22118.21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:50:52</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>552314965</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>76987947</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>22117.46</v>
+      </c>
+      <c r="I200" t="n">
+        <v>22117.47</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:40:45</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>close position</t>
         </is>
@@ -9588,7 +10457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16711,10 +17580,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>551710157</t>
-        </is>
+      <c r="C143" t="n">
+        <v>551710157</v>
       </c>
       <c r="D143" t="n">
         <v>76984945</v>
@@ -16763,10 +17630,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>551710167</t>
-        </is>
+      <c r="C144" t="n">
+        <v>551710167</v>
       </c>
       <c r="D144" t="n">
         <v>76984945</v>
@@ -16815,10 +17680,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>551710177</t>
-        </is>
+      <c r="C145" t="n">
+        <v>551710177</v>
       </c>
       <c r="D145" t="n">
         <v>76984945</v>
@@ -16867,10 +17730,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>551722329</t>
-        </is>
+      <c r="C146" t="n">
+        <v>551722329</v>
       </c>
       <c r="D146" t="n">
         <v>76984945</v>
@@ -16919,10 +17780,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>551722338</t>
-        </is>
+      <c r="C147" t="n">
+        <v>551722338</v>
       </c>
       <c r="D147" t="n">
         <v>76984945</v>
@@ -16971,10 +17830,8 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>551722343</t>
-        </is>
+      <c r="C148" t="n">
+        <v>551722343</v>
       </c>
       <c r="D148" t="n">
         <v>76984945</v>
@@ -17009,6 +17866,3913 @@
       <c r="L148" t="inlineStr">
         <is>
           <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:48:55</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>552027532</v>
+      </c>
+      <c r="D149" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>22097.59</v>
+      </c>
+      <c r="I149" t="n">
+        <v>22088.72</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:47:17</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>[sl 22088.72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:48:55</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>552027541</v>
+      </c>
+      <c r="D150" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>22097.59</v>
+      </c>
+      <c r="I150" t="n">
+        <v>22088.72</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:47:17</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>[sl 22088.72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:48:55</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>552027524</v>
+      </c>
+      <c r="D151" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>22097.59</v>
+      </c>
+      <c r="I151" t="n">
+        <v>22088.72</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:47:17</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>[sl 22088.72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:53:26</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>552056330</v>
+      </c>
+      <c r="D152" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>22081.1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>22081.1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:50:06</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>[sl 22081.10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:53:26</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>552056338</v>
+      </c>
+      <c r="D153" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>22081.37</v>
+      </c>
+      <c r="I153" t="n">
+        <v>22081.37</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:50:06</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>[sl 22081.37]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:53:26</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>552056343</v>
+      </c>
+      <c r="D154" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>22081.37</v>
+      </c>
+      <c r="I154" t="n">
+        <v>22081.37</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:50:06</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>[sl 22081.37]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:53:26</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>552058910</v>
+      </c>
+      <c r="D155" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>22073.54</v>
+      </c>
+      <c r="I155" t="n">
+        <v>22081.62</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2025-06-24 20:51:09</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>[sl 22081.62]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:53:32</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>552335146</v>
+      </c>
+      <c r="D156" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>22120.39</v>
+      </c>
+      <c r="I156" t="n">
+        <v>22129.86</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:52:24</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>[sl 22129.86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:53:32</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>552335150</v>
+      </c>
+      <c r="D157" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>22120.39</v>
+      </c>
+      <c r="I157" t="n">
+        <v>22129.86</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:52:24</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>[sl 22129.86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:53:32</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>552335160</v>
+      </c>
+      <c r="D158" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>22121.14</v>
+      </c>
+      <c r="I158" t="n">
+        <v>22129.86</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:52:24</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>[sl 22129.86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:53:32</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>552335155</v>
+      </c>
+      <c r="D159" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>22120.66</v>
+      </c>
+      <c r="I159" t="n">
+        <v>22129.86</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:52:24</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>[sl 22129.86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:00:30</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>552342297</v>
+      </c>
+      <c r="D160" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>22119.47</v>
+      </c>
+      <c r="I160" t="n">
+        <v>22127.41</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:57:40</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>[sl 22127.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:00:37</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>552342293</v>
+      </c>
+      <c r="D161" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>22119.47</v>
+      </c>
+      <c r="I161" t="n">
+        <v>22127.41</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:57:40</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>[sl 22127.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:00:37</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>552342291</v>
+      </c>
+      <c r="D162" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>22119.47</v>
+      </c>
+      <c r="I162" t="n">
+        <v>22127.41</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:57:40</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>[sl 22127.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:00:37</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>552342305</v>
+      </c>
+      <c r="D163" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>22119.47</v>
+      </c>
+      <c r="I163" t="n">
+        <v>22127.41</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:57:40</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>[sl 22127.41]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:36</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>552349412</v>
+      </c>
+      <c r="D164" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>22129.08</v>
+      </c>
+      <c r="I164" t="n">
+        <v>22137.12</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:01:02</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:36</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>552349421</v>
+      </c>
+      <c r="D165" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>22129.33</v>
+      </c>
+      <c r="I165" t="n">
+        <v>22137.12</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:01:03</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:36</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>552349425</v>
+      </c>
+      <c r="D166" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>22130.05</v>
+      </c>
+      <c r="I166" t="n">
+        <v>22136.97</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:01:03</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:37</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>552349432</v>
+      </c>
+      <c r="D167" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>22130.13</v>
+      </c>
+      <c r="I167" t="n">
+        <v>22136.97</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:01:03</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:49</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>552358499</v>
+      </c>
+      <c r="D168" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>22140.34</v>
+      </c>
+      <c r="I168" t="n">
+        <v>22138.49</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:42</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:50</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>552358509</v>
+      </c>
+      <c r="D169" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>22140.34</v>
+      </c>
+      <c r="I169" t="n">
+        <v>22137.99</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:42</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:50</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>552358521</v>
+      </c>
+      <c r="D170" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>22140.78</v>
+      </c>
+      <c r="I170" t="n">
+        <v>22137.99</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:42</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:50</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>552358531</v>
+      </c>
+      <c r="D171" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>22141.23</v>
+      </c>
+      <c r="I171" t="n">
+        <v>22137.99</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:05:43</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:07:24</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>552359578</v>
+      </c>
+      <c r="D172" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>22136.61</v>
+      </c>
+      <c r="I172" t="n">
+        <v>22151.26</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:06:13</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>[sl 22144.65]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:07:24</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>552359572</v>
+      </c>
+      <c r="D173" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>22136.16</v>
+      </c>
+      <c r="I173" t="n">
+        <v>22151.26</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:06:13</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>[sl 22144.65]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:07:24</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>552359565</v>
+      </c>
+      <c r="D174" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>22136.16</v>
+      </c>
+      <c r="I174" t="n">
+        <v>22150.53</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:06:13</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>-8.33</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>[sl 22144.65]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:07:24</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>552359562</v>
+      </c>
+      <c r="D175" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>22136.16</v>
+      </c>
+      <c r="I175" t="n">
+        <v>22150.4</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:06:12</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>-8.26</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>[sl 22144.65]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:54</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>552361480</v>
+      </c>
+      <c r="D176" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>22141.15</v>
+      </c>
+      <c r="I176" t="n">
+        <v>22133.49</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:02</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>[sl 22133.49]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:54</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>552361469</v>
+      </c>
+      <c r="D177" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>22141.49</v>
+      </c>
+      <c r="I177" t="n">
+        <v>22133.49</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:01</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>[sl 22133.49]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:54</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>552361484</v>
+      </c>
+      <c r="D178" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>22140.71</v>
+      </c>
+      <c r="I178" t="n">
+        <v>22133.49</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:02</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>[sl 22133.49]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:54</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>552361475</v>
+      </c>
+      <c r="D179" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>22141.15</v>
+      </c>
+      <c r="I179" t="n">
+        <v>22133.49</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:08:02</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>[sl 22133.49]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:10:06</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>552363285</v>
+      </c>
+      <c r="D180" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>22137.28</v>
+      </c>
+      <c r="I180" t="n">
+        <v>22139.37</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:09:55</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:10:07</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>552363286</v>
+      </c>
+      <c r="D181" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>22136.84</v>
+      </c>
+      <c r="I181" t="n">
+        <v>22141.12</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:09:55</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:10:07</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>552363288</v>
+      </c>
+      <c r="D182" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>22136.84</v>
+      </c>
+      <c r="I182" t="n">
+        <v>22141.59</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:09:55</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:10:07</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>552363289</v>
+      </c>
+      <c r="D183" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>22136.84</v>
+      </c>
+      <c r="I183" t="n">
+        <v>22141.32</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:09:55</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:32:04</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>552380858</v>
+      </c>
+      <c r="D184" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>22161.45</v>
+      </c>
+      <c r="I184" t="n">
+        <v>22160.91</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:23:51</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:32:05</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>552380861</v>
+      </c>
+      <c r="D185" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>22161.08</v>
+      </c>
+      <c r="I185" t="n">
+        <v>22160.91</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:23:51</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:32:05</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>552380862</v>
+      </c>
+      <c r="D186" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>22161.08</v>
+      </c>
+      <c r="I186" t="n">
+        <v>22160.91</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:23:51</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:42:46</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>552401963</v>
+      </c>
+      <c r="D187" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>22171.84</v>
+      </c>
+      <c r="I187" t="n">
+        <v>22172.97</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:36:04</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:42:46</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>552401968</v>
+      </c>
+      <c r="D188" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>22171.84</v>
+      </c>
+      <c r="I188" t="n">
+        <v>22172.73</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:36:05</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:42:46</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>552401974</v>
+      </c>
+      <c r="D189" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>22172.02</v>
+      </c>
+      <c r="I189" t="n">
+        <v>22172.73</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:36:05</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:44:25</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>552413043</v>
+      </c>
+      <c r="D190" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>22174.95</v>
+      </c>
+      <c r="I190" t="n">
+        <v>22174.73</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:42:49</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:44:25</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>552413056</v>
+      </c>
+      <c r="D191" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>22175.25</v>
+      </c>
+      <c r="I191" t="n">
+        <v>22174.73</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:42:49</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:44:25</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>552413076</v>
+      </c>
+      <c r="D192" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>22175.25</v>
+      </c>
+      <c r="I192" t="n">
+        <v>22174.73</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:42:49</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:50:11</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>552419589</v>
+      </c>
+      <c r="D193" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>22180.79</v>
+      </c>
+      <c r="I193" t="n">
+        <v>22178.92</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:49:27</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:50:11</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>552419597</v>
+      </c>
+      <c r="D194" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>22180.57</v>
+      </c>
+      <c r="I194" t="n">
+        <v>22179.17</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:49:28</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:50:11</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>552419605</v>
+      </c>
+      <c r="D195" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>22180.57</v>
+      </c>
+      <c r="I195" t="n">
+        <v>22179.17</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:49:28</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:57:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>552426112</v>
+      </c>
+      <c r="D196" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>22171.88</v>
+      </c>
+      <c r="I196" t="n">
+        <v>22161.23</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:56:15</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>[sl 22161.23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:57:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>552426110</v>
+      </c>
+      <c r="D197" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>22172.34</v>
+      </c>
+      <c r="I197" t="n">
+        <v>22161.23</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:56:14</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>[sl 22161.23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:57:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>552426111</v>
+      </c>
+      <c r="D198" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>22171.88</v>
+      </c>
+      <c r="I198" t="n">
+        <v>22161.23</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:56:15</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>[sl 22161.23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-06-25 00:04:08</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>552427285</v>
+      </c>
+      <c r="D199" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>22160.16</v>
+      </c>
+      <c r="I199" t="n">
+        <v>22171.91</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:57:12</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>[sl 22171.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06-25 00:04:08</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>552427294</v>
+      </c>
+      <c r="D200" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>22160.16</v>
+      </c>
+      <c r="I200" t="n">
+        <v>22171.91</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:57:13</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>[sl 22171.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-06-25 00:04:08</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>552427295</v>
+      </c>
+      <c r="D201" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>22160.16</v>
+      </c>
+      <c r="I201" t="n">
+        <v>22171.91</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2025-06-24 23:57:13</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>[sl 22171.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:34</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>553586439</v>
+      </c>
+      <c r="D202" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>22298.71</v>
+      </c>
+      <c r="I202" t="n">
+        <v>22295.76</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:29</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:34</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>553586444</v>
+      </c>
+      <c r="D203" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>22298.57</v>
+      </c>
+      <c r="I203" t="n">
+        <v>22295.67</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:29</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:34</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>553586449</v>
+      </c>
+      <c r="D204" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>22298.57</v>
+      </c>
+      <c r="I204" t="n">
+        <v>22295.93</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:30</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:45</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>553586558</v>
+      </c>
+      <c r="D205" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>22298.11</v>
+      </c>
+      <c r="I205" t="n">
+        <v>22297.93</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:37</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:46</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>553586560</v>
+      </c>
+      <c r="D206" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>22298.11</v>
+      </c>
+      <c r="I206" t="n">
+        <v>22297.93</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:37</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:46</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>553586564</v>
+      </c>
+      <c r="D207" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>USTECm</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>22298.11</v>
+      </c>
+      <c r="I207" t="n">
+        <v>22297.93</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:29:38</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:03</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>557523633</v>
+      </c>
+      <c r="D208" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>107183.8</v>
+      </c>
+      <c r="I208" t="n">
+        <v>107139.43</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:12:57</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>[sl 107139.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:03</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>557523634</v>
+      </c>
+      <c r="D209" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>107184.15</v>
+      </c>
+      <c r="I209" t="n">
+        <v>107139.43</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:12:57</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>[sl 107139.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:03</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>557523635</v>
+      </c>
+      <c r="D210" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>107183.94</v>
+      </c>
+      <c r="I210" t="n">
+        <v>107139.43</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:12:58</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>-7.12</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>[sl 107139.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:03</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>557523636</v>
+      </c>
+      <c r="D211" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>107184.08</v>
+      </c>
+      <c r="I211" t="n">
+        <v>107139.43</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:12:58</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>[sl 107139.43]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:15:01</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>557523798</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>107127.77</v>
+      </c>
+      <c r="I212" t="n">
+        <v>107170.79</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:19</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>-7.31</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>[sl 107170.79]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:15:01</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>557523801</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>107129.42</v>
+      </c>
+      <c r="I213" t="n">
+        <v>107170.79</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:20</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>-6.62</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>[sl 107170.79]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:15:01</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>557523790</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>107138.21</v>
+      </c>
+      <c r="I214" t="n">
+        <v>107170.79</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:19</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>[sl 107170.79]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:15:01</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>557523795</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>107130.29</v>
+      </c>
+      <c r="I215" t="n">
+        <v>107170.79</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:14:19</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>[sl 107170.79]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>close_time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>trading_day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>order_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>open_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>close_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>open_time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:29:25</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>68372067</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>22491.45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22493.15</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:29:03</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:58:11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>68377655</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>22518.55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22541.45</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:42:13</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[sl 22541.95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:58:11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>68377658</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>22518.55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22541.45</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:42:13</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[sl 22541.95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:02:27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>68377660</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>22518.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22565.35</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:42:13</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[sl 22566.37]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:24:58</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>68377664</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>22518.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22569.35</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:42:13</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[sl 22570.17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:24:58</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>68388885</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22583.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22569.35</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:20:21</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[sl 22570.54]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:24:58</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>68388887</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>22583.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22569.35</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:20:21</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[sl 22570.70]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:24:58</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>68388889</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>22583.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22569.35</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:20:21</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[sl 22570.70]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:24:58</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>68388890</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>530264445</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>US100.cash</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>22583.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22569.35</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:20:21</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[sl 22570.38]</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -10457,7 +10457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L215"/>
+  <dimension ref="A1:L294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21030,10 +21030,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>557523798</t>
-        </is>
+      <c r="C212" t="n">
+        <v>557523798</v>
       </c>
       <c r="D212" t="n">
         <v>76984945</v>
@@ -21082,10 +21080,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>557523801</t>
-        </is>
+      <c r="C213" t="n">
+        <v>557523801</v>
       </c>
       <c r="D213" t="n">
         <v>76984945</v>
@@ -21134,10 +21130,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>557523790</t>
-        </is>
+      <c r="C214" t="n">
+        <v>557523790</v>
       </c>
       <c r="D214" t="n">
         <v>76984945</v>
@@ -21186,10 +21180,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>557523795</t>
-        </is>
+      <c r="C215" t="n">
+        <v>557523795</v>
       </c>
       <c r="D215" t="n">
         <v>76984945</v>
@@ -21224,6 +21216,3964 @@
       <c r="L215" t="inlineStr">
         <is>
           <t>[sl 107170.79]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:28:59</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>557525000</v>
+      </c>
+      <c r="D216" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>107244.15</v>
+      </c>
+      <c r="I216" t="n">
+        <v>107222.32</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:24:06</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>-5.89</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:28:59</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>557525001</v>
+      </c>
+      <c r="D217" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>107244.43</v>
+      </c>
+      <c r="I217" t="n">
+        <v>107222.87</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:24:06</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:28:59</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>557525002</v>
+      </c>
+      <c r="D218" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>107244.2</v>
+      </c>
+      <c r="I218" t="n">
+        <v>107233.43</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:24:06</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:00</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>557525003</v>
+      </c>
+      <c r="D219" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>107244.8</v>
+      </c>
+      <c r="I219" t="n">
+        <v>107237.42</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:24:07</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:29</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>557525281</v>
+      </c>
+      <c r="D220" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>107256.5</v>
+      </c>
+      <c r="I220" t="n">
+        <v>107231.15</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:06</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:29</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>557525282</v>
+      </c>
+      <c r="D221" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>107254.49</v>
+      </c>
+      <c r="I221" t="n">
+        <v>107231.74</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:07</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:29</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>557525283</v>
+      </c>
+      <c r="D222" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>107254.42</v>
+      </c>
+      <c r="I222" t="n">
+        <v>107231.17</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:07</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:30</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>557525284</v>
+      </c>
+      <c r="D223" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>107253.64</v>
+      </c>
+      <c r="I223" t="n">
+        <v>107231.63</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:29:07</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:10</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>557529367</v>
+      </c>
+      <c r="D224" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>107358</v>
+      </c>
+      <c r="I224" t="n">
+        <v>107336.49</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:09</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:10</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>557529368</v>
+      </c>
+      <c r="D225" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>107358.42</v>
+      </c>
+      <c r="I225" t="n">
+        <v>107336.46</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:09</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>-5.27</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:10</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>557529369</v>
+      </c>
+      <c r="D226" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>107358.29</v>
+      </c>
+      <c r="I226" t="n">
+        <v>107336.51</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:09</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:11</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>557529370</v>
+      </c>
+      <c r="D227" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>107358.14</v>
+      </c>
+      <c r="I227" t="n">
+        <v>107336.53</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:09</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:32</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>557529385</v>
+      </c>
+      <c r="D228" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>107361.75</v>
+      </c>
+      <c r="I228" t="n">
+        <v>107328.5</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:37</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>-6.98</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>[sl 107328.50]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:32</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>557529383</v>
+      </c>
+      <c r="D229" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>107361.79</v>
+      </c>
+      <c r="I229" t="n">
+        <v>107328.5</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:37</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>[sl 107328.50]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:32</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>557529382</v>
+      </c>
+      <c r="D230" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>107362.6</v>
+      </c>
+      <c r="I230" t="n">
+        <v>107328.5</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:37</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>-7.16</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>[sl 107328.50]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:32</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>557529386</v>
+      </c>
+      <c r="D231" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>107362.27</v>
+      </c>
+      <c r="I231" t="n">
+        <v>107328.5</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:11:38</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>-7.09</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>[sl 107328.50]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:42</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>557529476</v>
+      </c>
+      <c r="D232" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>107313.34</v>
+      </c>
+      <c r="I232" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:37</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:42</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>557529477</v>
+      </c>
+      <c r="D233" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>107313.34</v>
+      </c>
+      <c r="I233" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:37</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:42</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>557529480</v>
+      </c>
+      <c r="D234" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>107313.34</v>
+      </c>
+      <c r="I234" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:37</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:43</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>557529473</v>
+      </c>
+      <c r="D235" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>107313.44</v>
+      </c>
+      <c r="I235" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:37</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>-8.720000000000001</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:49</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>557529511</v>
+      </c>
+      <c r="D236" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>107303.58</v>
+      </c>
+      <c r="I236" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:46</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>-7.16</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:49</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>557529509</v>
+      </c>
+      <c r="D237" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>107303.58</v>
+      </c>
+      <c r="I237" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:46</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>-7.16</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:49</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>557529514</v>
+      </c>
+      <c r="D238" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>107305.43</v>
+      </c>
+      <c r="I238" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:46</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:49</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>557529505</v>
+      </c>
+      <c r="D239" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>107303.58</v>
+      </c>
+      <c r="I239" t="n">
+        <v>107345.73</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:12:46</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>-8.43</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>[sl 107345.73]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:25</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>557529602</v>
+      </c>
+      <c r="D240" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>107317.92</v>
+      </c>
+      <c r="I240" t="n">
+        <v>107335.81</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:18</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:25</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>557529604</v>
+      </c>
+      <c r="D241" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>107316.6</v>
+      </c>
+      <c r="I241" t="n">
+        <v>107336.2</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:18</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:25</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>557529605</v>
+      </c>
+      <c r="D242" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>107316.59</v>
+      </c>
+      <c r="I242" t="n">
+        <v>107335.38</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:18</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:26</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>557529607</v>
+      </c>
+      <c r="D243" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>107316.57</v>
+      </c>
+      <c r="I243" t="n">
+        <v>107335.38</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:18</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:53</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>557529647</v>
+      </c>
+      <c r="D244" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>107312.31</v>
+      </c>
+      <c r="I244" t="n">
+        <v>107333.64</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:49</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:54</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>557529648</v>
+      </c>
+      <c r="D245" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>107312.14</v>
+      </c>
+      <c r="I245" t="n">
+        <v>107333.65</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:49</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:54</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>557529649</v>
+      </c>
+      <c r="D246" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>107311.82</v>
+      </c>
+      <c r="I246" t="n">
+        <v>107333.61</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:49</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>-5.23</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:54</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>557529650</v>
+      </c>
+      <c r="D247" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>107311.86</v>
+      </c>
+      <c r="I247" t="n">
+        <v>107333.4</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:14:49</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:33</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>557530156</v>
+      </c>
+      <c r="D248" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>107298.3</v>
+      </c>
+      <c r="I248" t="n">
+        <v>107276.93</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:28</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:34</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>557530157</v>
+      </c>
+      <c r="D249" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>107298.34</v>
+      </c>
+      <c r="I249" t="n">
+        <v>107277.01</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:28</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:34</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>557530158</v>
+      </c>
+      <c r="D250" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>107298.2</v>
+      </c>
+      <c r="I250" t="n">
+        <v>107276.99</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:28</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:34</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>557530159</v>
+      </c>
+      <c r="D251" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>107297.21</v>
+      </c>
+      <c r="I251" t="n">
+        <v>107277.05</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:29</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>-3.02</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:50</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>557530166</v>
+      </c>
+      <c r="D252" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>107294.05</v>
+      </c>
+      <c r="I252" t="n">
+        <v>107270.01</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:41</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:51</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>557530167</v>
+      </c>
+      <c r="D253" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>107294.39</v>
+      </c>
+      <c r="I253" t="n">
+        <v>107270.15</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:41</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:51</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>557530168</v>
+      </c>
+      <c r="D254" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>107296.56</v>
+      </c>
+      <c r="I254" t="n">
+        <v>107269.98</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:42</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:51</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>557530169</v>
+      </c>
+      <c r="D255" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>107297.84</v>
+      </c>
+      <c r="I255" t="n">
+        <v>107269.34</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:18:42</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:51</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>557530263</v>
+      </c>
+      <c r="D256" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>107293.72</v>
+      </c>
+      <c r="I256" t="n">
+        <v>107269.69</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:46</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:52</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>557530264</v>
+      </c>
+      <c r="D257" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>107294.13</v>
+      </c>
+      <c r="I257" t="n">
+        <v>107268.88</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:47</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:52</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>557530265</v>
+      </c>
+      <c r="D258" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>107292.48</v>
+      </c>
+      <c r="I258" t="n">
+        <v>107269.55</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:47</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:52</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>557530267</v>
+      </c>
+      <c r="D259" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H259" t="n">
+        <v>107293.31</v>
+      </c>
+      <c r="I259" t="n">
+        <v>107270.49</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:19:47</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:38</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>557530633</v>
+      </c>
+      <c r="D260" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>107319.26</v>
+      </c>
+      <c r="I260" t="n">
+        <v>107288.2</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:29</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:39</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>557530636</v>
+      </c>
+      <c r="D261" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>107318.76</v>
+      </c>
+      <c r="I261" t="n">
+        <v>107286.65</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:30</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:39</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>557530638</v>
+      </c>
+      <c r="D262" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>107318.6</v>
+      </c>
+      <c r="I262" t="n">
+        <v>107286.79</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:30</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:39</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>557530639</v>
+      </c>
+      <c r="D263" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>107317.3</v>
+      </c>
+      <c r="I263" t="n">
+        <v>107287.24</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:30</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:23:26</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>557530658</v>
+      </c>
+      <c r="D264" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>107303.2</v>
+      </c>
+      <c r="I264" t="n">
+        <v>107280.11</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:45</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:23:26</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>557530659</v>
+      </c>
+      <c r="D265" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>107303.15</v>
+      </c>
+      <c r="I265" t="n">
+        <v>107280.5</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:46</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:23:26</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>557530661</v>
+      </c>
+      <c r="D266" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>107303.13</v>
+      </c>
+      <c r="I266" t="n">
+        <v>107280.71</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:46</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:23:27</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>557530662</v>
+      </c>
+      <c r="D267" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>107303.42</v>
+      </c>
+      <c r="I267" t="n">
+        <v>107281</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:22:46</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:27:59</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>557531005</v>
+      </c>
+      <c r="D268" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>107284.86</v>
+      </c>
+      <c r="I268" t="n">
+        <v>107312.78</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:26:38</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>-37.69</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>[sl 107312.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:27:59</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>557531025</v>
+      </c>
+      <c r="D269" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>107284.05</v>
+      </c>
+      <c r="I269" t="n">
+        <v>107312.78</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:26:57</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>-31.89</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>[sl 107312.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:27:59</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>557531027</v>
+      </c>
+      <c r="D270" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>107284.11</v>
+      </c>
+      <c r="I270" t="n">
+        <v>107312.78</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:26:57</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>-30.67</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>[sl 107312.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:27:59</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>557531028</v>
+      </c>
+      <c r="D271" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>107283.87</v>
+      </c>
+      <c r="I271" t="n">
+        <v>107312.78</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:26:57</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>-28.62</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>[sl 107312.78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:25</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>557531104</v>
+      </c>
+      <c r="D272" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>107301.24</v>
+      </c>
+      <c r="I272" t="n">
+        <v>107321.91</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:17</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>-33.08</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:25</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>557531105</v>
+      </c>
+      <c r="D273" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>107301.35</v>
+      </c>
+      <c r="I273" t="n">
+        <v>107322.12</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:17</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>-32.61</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:25</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>557531106</v>
+      </c>
+      <c r="D274" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>107301.28</v>
+      </c>
+      <c r="I274" t="n">
+        <v>107321.54</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:17</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>-32.62</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:26</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>557531107</v>
+      </c>
+      <c r="D275" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>107301.25</v>
+      </c>
+      <c r="I275" t="n">
+        <v>107321.78</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:28:18</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>-32.43</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:32:41</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>557531467</v>
+      </c>
+      <c r="D276" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H276" t="n">
+        <v>107240.21</v>
+      </c>
+      <c r="I276" t="n">
+        <v>107274.12</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:32:34</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:32:41</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>557531468</v>
+      </c>
+      <c r="D277" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>107240.21</v>
+      </c>
+      <c r="I277" t="n">
+        <v>107274.5</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:32:35</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:32:41</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>557531470</v>
+      </c>
+      <c r="D278" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>107251.17</v>
+      </c>
+      <c r="I278" t="n">
+        <v>107274.15</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:32:34</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:55</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>557540967</v>
+      </c>
+      <c r="D279" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>107465.35</v>
+      </c>
+      <c r="I279" t="n">
+        <v>107440.22</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:45</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>[sl 107440.22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:55</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>557540964</v>
+      </c>
+      <c r="D280" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>107464.63</v>
+      </c>
+      <c r="I280" t="n">
+        <v>107440.22</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:45</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>-7.08</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>[sl 107440.22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:56</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>557540966</v>
+      </c>
+      <c r="D281" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>107465.29</v>
+      </c>
+      <c r="I281" t="n">
+        <v>107440.22</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:45</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>-7.02</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>[sl 107440.22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:56</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>557540965</v>
+      </c>
+      <c r="D282" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>107465.2</v>
+      </c>
+      <c r="I282" t="n">
+        <v>107440.22</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:16:45</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>[sl 107440.22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:16</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>557542441</v>
+      </c>
+      <c r="D283" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>107495.06</v>
+      </c>
+      <c r="I283" t="n">
+        <v>107468.09</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:14</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>[sl 107468.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:16</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>557542440</v>
+      </c>
+      <c r="D284" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>107495.23</v>
+      </c>
+      <c r="I284" t="n">
+        <v>107468.09</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:14</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>-7.06</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>[sl 107468.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:17</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>557542442</v>
+      </c>
+      <c r="D285" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>107495.23</v>
+      </c>
+      <c r="I285" t="n">
+        <v>107468.09</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:15</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>[sl 107468.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:17</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>557542443</v>
+      </c>
+      <c r="D286" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>107495.3</v>
+      </c>
+      <c r="I286" t="n">
+        <v>107468.09</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:36:15</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>[sl 107468.09]</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:37</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>557542782</v>
+      </c>
+      <c r="D287" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>107496.2</v>
+      </c>
+      <c r="I287" t="n">
+        <v>107460.89</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:19</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>[sl 107460.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:37</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>557542780</v>
+      </c>
+      <c r="D288" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>107496.12</v>
+      </c>
+      <c r="I288" t="n">
+        <v>107460.89</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:18</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>[sl 107460.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:37</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>557542783</v>
+      </c>
+      <c r="D289" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H289" t="n">
+        <v>107496.43</v>
+      </c>
+      <c r="I289" t="n">
+        <v>107460.89</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:19</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>[sl 107460.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:37</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>557542781</v>
+      </c>
+      <c r="D290" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>107496.52</v>
+      </c>
+      <c r="I290" t="n">
+        <v>107460.89</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:44:19</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>[sl 107460.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:01</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>557542969</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>107486.43</v>
+      </c>
+      <c r="I291" t="n">
+        <v>107454.52</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:46:07</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:01</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>557542970</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>107487.05</v>
+      </c>
+      <c r="I292" t="n">
+        <v>107455.3</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:46:07</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:01</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>557542971</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>107485.39</v>
+      </c>
+      <c r="I293" t="n">
+        <v>107451.83</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:46:08</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:02</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>557542972</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>107485.77</v>
+      </c>
+      <c r="I294" t="n">
+        <v>107451.77</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:46:08</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>close position</t>
         </is>
       </c>
     </row>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -10457,7 +10457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L294"/>
+  <dimension ref="A1:L302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24980,10 +24980,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>557542969</t>
-        </is>
+      <c r="C291" t="n">
+        <v>557542969</v>
       </c>
       <c r="D291" t="n">
         <v>76984945</v>
@@ -25032,10 +25030,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>557542970</t>
-        </is>
+      <c r="C292" t="n">
+        <v>557542970</v>
       </c>
       <c r="D292" t="n">
         <v>76984945</v>
@@ -25084,10 +25080,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>557542971</t>
-        </is>
+      <c r="C293" t="n">
+        <v>557542971</v>
       </c>
       <c r="D293" t="n">
         <v>76984945</v>
@@ -25136,10 +25130,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>557542972</t>
-        </is>
+      <c r="C294" t="n">
+        <v>557542972</v>
       </c>
       <c r="D294" t="n">
         <v>76984945</v>
@@ -25172,6 +25164,414 @@
         <v>-2.72</v>
       </c>
       <c r="L294" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:50:27</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>557543051</v>
+      </c>
+      <c r="D295" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>107451.88</v>
+      </c>
+      <c r="I295" t="n">
+        <v>107485.69</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:04</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>[sl 107485.69]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:50:27</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>557543050</v>
+      </c>
+      <c r="D296" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>107451.84</v>
+      </c>
+      <c r="I296" t="n">
+        <v>107485.69</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:04</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>[sl 107485.69]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:50:27</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>557543052</v>
+      </c>
+      <c r="D297" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>107451.81</v>
+      </c>
+      <c r="I297" t="n">
+        <v>107485.69</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:05</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>[sl 107485.69]</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:50:27</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>557543053</v>
+      </c>
+      <c r="D298" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>107452.45</v>
+      </c>
+      <c r="I298" t="n">
+        <v>107485.69</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:47:05</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>[sl 107485.69]</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:54:07</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>557543450</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>107502.34</v>
+      </c>
+      <c r="I299" t="n">
+        <v>107472.6</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:51:34</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:54:07</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>557543451</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>107502.38</v>
+      </c>
+      <c r="I300" t="n">
+        <v>107475.84</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:51:34</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:54:08</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>557543454</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>107503.44</v>
+      </c>
+      <c r="I301" t="n">
+        <v>107476.07</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:51:35</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:54:08</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>557543457</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>107503.98</v>
+      </c>
+      <c r="I302" t="n">
+        <v>107475.45</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:51:35</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="L302" t="inlineStr">
         <is>
           <t>close position</t>
         </is>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -10457,7 +10457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L302"/>
+  <dimension ref="A1:L322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25380,10 +25380,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>557543450</t>
-        </is>
+      <c r="C299" t="n">
+        <v>557543450</v>
       </c>
       <c r="D299" t="n">
         <v>76984945</v>
@@ -25432,10 +25430,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>557543451</t>
-        </is>
+      <c r="C300" t="n">
+        <v>557543451</v>
       </c>
       <c r="D300" t="n">
         <v>76984945</v>
@@ -25484,10 +25480,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>557543454</t>
-        </is>
+      <c r="C301" t="n">
+        <v>557543454</v>
       </c>
       <c r="D301" t="n">
         <v>76984945</v>
@@ -25536,10 +25530,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>557543457</t>
-        </is>
+      <c r="C302" t="n">
+        <v>557543457</v>
       </c>
       <c r="D302" t="n">
         <v>76984945</v>
@@ -25572,6 +25564,1014 @@
         <v>-1.43</v>
       </c>
       <c r="L302" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:40</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>557544210</v>
+      </c>
+      <c r="D303" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>107507.02</v>
+      </c>
+      <c r="I303" t="n">
+        <v>107484.77</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:03</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:40</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>557544211</v>
+      </c>
+      <c r="D304" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>107506.78</v>
+      </c>
+      <c r="I304" t="n">
+        <v>107485.02</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:03</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:41</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>557544212</v>
+      </c>
+      <c r="D305" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>107505.88</v>
+      </c>
+      <c r="I305" t="n">
+        <v>107484.69</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:04</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:41</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>557544213</v>
+      </c>
+      <c r="D306" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H306" t="n">
+        <v>107506.02</v>
+      </c>
+      <c r="I306" t="n">
+        <v>107484.78</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:58:04</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:00:16</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>557544249</v>
+      </c>
+      <c r="D307" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>107487.6</v>
+      </c>
+      <c r="I307" t="n">
+        <v>107517.47</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:59:26</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>[sl 107517.47]</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:00:16</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>557544247</v>
+      </c>
+      <c r="D308" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>107488.61</v>
+      </c>
+      <c r="I308" t="n">
+        <v>107517.47</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:59:26</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>[sl 107517.47]</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:00:16</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>557544248</v>
+      </c>
+      <c r="D309" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H309" t="n">
+        <v>107488.53</v>
+      </c>
+      <c r="I309" t="n">
+        <v>107517.47</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:59:26</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>-11.86</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>[sl 107517.47]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:00:16</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>557544250</v>
+      </c>
+      <c r="D310" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H310" t="n">
+        <v>107487.92</v>
+      </c>
+      <c r="I310" t="n">
+        <v>107517.47</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:59:26</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>-10.64</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>[sl 107517.47]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:12</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>557544397</v>
+      </c>
+      <c r="D311" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>107483.58</v>
+      </c>
+      <c r="I311" t="n">
+        <v>107513.1</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:02:46</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:12</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>557544398</v>
+      </c>
+      <c r="D312" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H312" t="n">
+        <v>107486.15</v>
+      </c>
+      <c r="I312" t="n">
+        <v>107512.56</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:02:46</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:12</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>557544399</v>
+      </c>
+      <c r="D313" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>107485.76</v>
+      </c>
+      <c r="I313" t="n">
+        <v>107511.53</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:02:47</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:12</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>557544400</v>
+      </c>
+      <c r="D314" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H314" t="n">
+        <v>107485.79</v>
+      </c>
+      <c r="I314" t="n">
+        <v>107511.11</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:02:47</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:13</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>557544404</v>
+      </c>
+      <c r="D315" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H315" t="n">
+        <v>107481.03</v>
+      </c>
+      <c r="I315" t="n">
+        <v>107511.06</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:02:59</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:13</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>557544405</v>
+      </c>
+      <c r="D316" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>107481.05</v>
+      </c>
+      <c r="I316" t="n">
+        <v>107510.89</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:02:59</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:13</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>557544406</v>
+      </c>
+      <c r="D317" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H317" t="n">
+        <v>107481.05</v>
+      </c>
+      <c r="I317" t="n">
+        <v>107511.08</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:03:00</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:14</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>557544407</v>
+      </c>
+      <c r="D318" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H318" t="n">
+        <v>107481.08</v>
+      </c>
+      <c r="I318" t="n">
+        <v>107510.59</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:03:00</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:35</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>557545465</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>107509.98</v>
+      </c>
+      <c r="I319" t="n">
+        <v>107491.24</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:31</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:35</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>557545466</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H320" t="n">
+        <v>107510.04</v>
+      </c>
+      <c r="I320" t="n">
+        <v>107489.5</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:31</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:35</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>557545467</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H321" t="n">
+        <v>107512.43</v>
+      </c>
+      <c r="I321" t="n">
+        <v>107489.04</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:31</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:36</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>557545468</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H322" t="n">
+        <v>107512.18</v>
+      </c>
+      <c r="I322" t="n">
+        <v>107489.8</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:11:32</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>close position</t>
         </is>

--- a/data/trade_records.xlsx
+++ b/data/trade_records.xlsx
@@ -10457,7 +10457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L322"/>
+  <dimension ref="A1:L350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26380,10 +26380,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>557545465</t>
-        </is>
+      <c r="C319" t="n">
+        <v>557545465</v>
       </c>
       <c r="D319" t="n">
         <v>76984945</v>
@@ -26432,10 +26430,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>557545466</t>
-        </is>
+      <c r="C320" t="n">
+        <v>557545466</v>
       </c>
       <c r="D320" t="n">
         <v>76984945</v>
@@ -26484,10 +26480,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>557545467</t>
-        </is>
+      <c r="C321" t="n">
+        <v>557545467</v>
       </c>
       <c r="D321" t="n">
         <v>76984945</v>
@@ -26536,10 +26530,8 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>557545468</t>
-        </is>
+      <c r="C322" t="n">
+        <v>557545468</v>
       </c>
       <c r="D322" t="n">
         <v>76984945</v>
@@ -26572,6 +26564,1414 @@
         <v>-2.02</v>
       </c>
       <c r="L322" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:20:34</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>557545874</v>
+      </c>
+      <c r="D323" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H323" t="n">
+        <v>107489.77</v>
+      </c>
+      <c r="I323" t="n">
+        <v>107520.82</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:19:30</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>[sl 107520.82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:20:34</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>557545876</v>
+      </c>
+      <c r="D324" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H324" t="n">
+        <v>107489.64</v>
+      </c>
+      <c r="I324" t="n">
+        <v>107520.82</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:19:31</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>[sl 107520.82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:20:34</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>557545877</v>
+      </c>
+      <c r="D325" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H325" t="n">
+        <v>107489.41</v>
+      </c>
+      <c r="I325" t="n">
+        <v>107520.82</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:19:31</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>[sl 107520.82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:20:34</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>557545875</v>
+      </c>
+      <c r="D326" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H326" t="n">
+        <v>107489.64</v>
+      </c>
+      <c r="I326" t="n">
+        <v>107520.82</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:19:31</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>[sl 107520.82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:21</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>557546878</v>
+      </c>
+      <c r="D327" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H327" t="n">
+        <v>107543.5</v>
+      </c>
+      <c r="I327" t="n">
+        <v>107525.95</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:18</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:21</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>557546880</v>
+      </c>
+      <c r="D328" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H328" t="n">
+        <v>107542.05</v>
+      </c>
+      <c r="I328" t="n">
+        <v>107523.1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:18</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:22</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>557546883</v>
+      </c>
+      <c r="D329" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H329" t="n">
+        <v>107540.84</v>
+      </c>
+      <c r="I329" t="n">
+        <v>107522.72</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:18</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:22</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>557546885</v>
+      </c>
+      <c r="D330" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H330" t="n">
+        <v>107540.76</v>
+      </c>
+      <c r="I330" t="n">
+        <v>107523.63</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:18</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:04</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>557547025</v>
+      </c>
+      <c r="D331" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H331" t="n">
+        <v>107542.57</v>
+      </c>
+      <c r="I331" t="n">
+        <v>107514.92</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:56</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:05</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>557547026</v>
+      </c>
+      <c r="D332" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H332" t="n">
+        <v>107545.92</v>
+      </c>
+      <c r="I332" t="n">
+        <v>107514.91</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:57</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:05</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>557547027</v>
+      </c>
+      <c r="D333" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H333" t="n">
+        <v>107545.57</v>
+      </c>
+      <c r="I333" t="n">
+        <v>107514.89</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:57</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:05</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>557547029</v>
+      </c>
+      <c r="D334" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H334" t="n">
+        <v>107545.65</v>
+      </c>
+      <c r="I334" t="n">
+        <v>107514.88</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:29:57</t>
+        </is>
+      </c>
+      <c r="K334" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:32</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>557547065</v>
+      </c>
+      <c r="D335" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H335" t="n">
+        <v>107549.38</v>
+      </c>
+      <c r="I335" t="n">
+        <v>107516.84</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:30</t>
+        </is>
+      </c>
+      <c r="K335" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>[sl 107516.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:32</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>557547069</v>
+      </c>
+      <c r="D336" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H336" t="n">
+        <v>107549.38</v>
+      </c>
+      <c r="I336" t="n">
+        <v>107516.84</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:30</t>
+        </is>
+      </c>
+      <c r="K336" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>[sl 107516.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:32</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>557547068</v>
+      </c>
+      <c r="D337" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H337" t="n">
+        <v>107549.38</v>
+      </c>
+      <c r="I337" t="n">
+        <v>107516.84</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:30</t>
+        </is>
+      </c>
+      <c r="K337" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>[sl 107516.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:32</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>557547066</v>
+      </c>
+      <c r="D338" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H338" t="n">
+        <v>107549.38</v>
+      </c>
+      <c r="I338" t="n">
+        <v>107516.84</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:30:30</t>
+        </is>
+      </c>
+      <c r="K338" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>[sl 107516.84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:11</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>557548078</v>
+      </c>
+      <c r="D339" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H339" t="n">
+        <v>107514.33</v>
+      </c>
+      <c r="I339" t="n">
+        <v>107546.88</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:40:58</t>
+        </is>
+      </c>
+      <c r="K339" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:12</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>557548079</v>
+      </c>
+      <c r="D340" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H340" t="n">
+        <v>107514.33</v>
+      </c>
+      <c r="I340" t="n">
+        <v>107546.98</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:40:58</t>
+        </is>
+      </c>
+      <c r="K340" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:12</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>557548081</v>
+      </c>
+      <c r="D341" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H341" t="n">
+        <v>107514.33</v>
+      </c>
+      <c r="I341" t="n">
+        <v>107547.64</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:40:58</t>
+        </is>
+      </c>
+      <c r="K341" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:12</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>557548082</v>
+      </c>
+      <c r="D342" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H342" t="n">
+        <v>107514.33</v>
+      </c>
+      <c r="I342" t="n">
+        <v>107547.82</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:40:58</t>
+        </is>
+      </c>
+      <c r="K342" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:06</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>557548484</v>
+      </c>
+      <c r="D343" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H343" t="n">
+        <v>107551.02</v>
+      </c>
+      <c r="I343" t="n">
+        <v>107508.57</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:22</t>
+        </is>
+      </c>
+      <c r="K343" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>[sl 107508.57]</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:06</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>557548486</v>
+      </c>
+      <c r="D344" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H344" t="n">
+        <v>107551.02</v>
+      </c>
+      <c r="I344" t="n">
+        <v>107508.57</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:22</t>
+        </is>
+      </c>
+      <c r="K344" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>[sl 107508.57]</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:06</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>557548485</v>
+      </c>
+      <c r="D345" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H345" t="n">
+        <v>107551.02</v>
+      </c>
+      <c r="I345" t="n">
+        <v>107508.57</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:22</t>
+        </is>
+      </c>
+      <c r="K345" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>[sl 107508.57]</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:06</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>557548488</v>
+      </c>
+      <c r="D346" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="H346" t="n">
+        <v>107551.02</v>
+      </c>
+      <c r="I346" t="n">
+        <v>107508.57</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:43:22</t>
+        </is>
+      </c>
+      <c r="K346" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>[sl 107508.57]</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:49:14</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>557548673</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H347" t="n">
+        <v>107498.1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>107530.04</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:54</t>
+        </is>
+      </c>
+      <c r="K347" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:49:15</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>557548674</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H348" t="n">
+        <v>107495.96</v>
+      </c>
+      <c r="I348" t="n">
+        <v>107529.84</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:55</t>
+        </is>
+      </c>
+      <c r="K348" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:49:15</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>557548675</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H349" t="n">
+        <v>107497.14</v>
+      </c>
+      <c r="I349" t="n">
+        <v>107530.91</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:55</t>
+        </is>
+      </c>
+      <c r="K349" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>close position</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:49:15</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>557548676</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>76984945</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>BTCUSDm</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="H350" t="n">
+        <v>107497.62</v>
+      </c>
+      <c r="I350" t="n">
+        <v>107530.06</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>2025-06-28 15:46:55</t>
+        </is>
+      </c>
+      <c r="K350" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="L350" t="inlineStr">
         <is>
           <t>close position</t>
         </is>
